--- a/data/hotels_by_city/Houston/Houston_shard_50.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_50.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="508">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d503400-Reviews-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Best-Western-Plus-Sam-Houston-Inn-Suites.h1138191.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1398 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r561767842-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>503400</t>
+  </si>
+  <si>
+    <t>561767842</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>For a Long Stay, Not the newest but great hospitality</t>
+  </si>
+  <si>
+    <t>If you are going for a long stay. The bed was great, the staff was great and it could not be any cleaner. Problem is that it could use an update to the bathroom as rust was developing down from the handle in the bath/shower. It had  definitely seen a long time use. The room had several patches that were obvious in the sheet rock and paint. There was no elevator so if you can't take the stairs which is inside, then you have to reserve the 1st floor. There was alsono upgrade available (as only one room was an upgrade and it was taken for the entire 9 day stay).  The staff was outstanding and it was like staying with friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2018</t>
+  </si>
+  <si>
+    <t>If you are going for a long stay. The bed was great, the staff was great and it could not be any cleaner. Problem is that it could use an update to the bathroom as rust was developing down from the handle in the bath/shower. It had  definitely seen a long time use. The room had several patches that were obvious in the sheet rock and paint. There was no elevator so if you can't take the stairs which is inside, then you have to reserve the 1st floor. There was alsono upgrade available (as only one room was an upgrade and it was taken for the entire 9 day stay).  The staff was outstanding and it was like staying with friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r558303538-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558303538</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Eko Sulistyo</t>
+  </si>
+  <si>
+    <t>Pro:Very good hotel for long stay, feel like home in near beltway 8 houston. Near ihop restaurant. Laundry facility and warm staff.As foreigner very convenience since  check in.Cons:Breakfast need non-pork/ham variety for moslemGood Job!EkoMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Pro:Very good hotel for long stay, feel like home in near beltway 8 houston. Near ihop restaurant. Laundry facility and warm staff.As foreigner very convenience since  check in.Cons:Breakfast need non-pork/ham variety for moslemGood Job!EkoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r552633715-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>552633715</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>My Stay at Best Western</t>
+  </si>
+  <si>
+    <t>We had a nice quiet stay at Best Western. The rooms were clean and the Jacuzzi was extremely nice. The food choices for the breakfast could have been a bit better, but overall it was a very nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>We had a nice quiet stay at Best Western. The rooms were clean and the Jacuzzi was extremely nice. The food choices for the breakfast could have been a bit better, but overall it was a very nice stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r540734593-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540734593</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Mildew in room</t>
+  </si>
+  <si>
+    <t>I usually stay at this hotel but this time there was mildew all in the bathroom. Not sure if I will stay again. Breakfast was good and staff very helpful. In good area. Room was roomy and beds were comfortable. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded November 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2017</t>
+  </si>
+  <si>
+    <t>I usually stay at this hotel but this time there was mildew all in the bathroom. Not sure if I will stay again. Breakfast was good and staff very helpful. In good area. Room was roomy and beds were comfortable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r538646467-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538646467</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Unbeatable customer service for the best value</t>
+  </si>
+  <si>
+    <t>you can tell this is a family owned business in that you feel at home all needs are taken care of and the staff makes itt feel like home away from home. I will definitely be returning for both business and leisure,  and will be recommendation thiae hotel to my colleagues and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>you can tell this is a family owned business in that you feel at home all needs are taken care of and the staff makes itt feel like home away from home. I will definitely be returning for both business and leisure,  and will be recommendation thiae hotel to my colleagues and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r534498653-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534498653</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here</t>
+  </si>
+  <si>
+    <t>I was leery of staying here in the first place due to the Best Western name, I had thought of changing hotels at the last minute, and I truly wish I would have. It started (after having already traveled for 12 hours) by checking in with a lady who, while nice, seemed very scatter-brained and almost as if she were on drugs. She didn't even realize we had reserved two rooms until we brought it to her attention. We stayed on the second floor, right next to the elevator, and all night all I heard was people stomping above me and the elevator noise. The next morning, I put the "please make up room" sign on my door handle, only to come back to the room looking exactly the same. No fresh towels, nothing. The room had not been attended to at all. The hot water was another problem- there IS NO hot water. I finally figured out how to get it luke warm, but it was never hot. I also never got the fan on my heating unit to work. I truly was going to let all of these things slide as I'm typically and easy-going person, and I just wanted a comfortable bed to sleep in. But the final straw was our last morning there, when I woke up to the sound of dripping water. I threw on the lights only to find the ceiling above me leaking....I was leery of staying here in the first place due to the Best Western name, I had thought of changing hotels at the last minute, and I truly wish I would have. It started (after having already traveled for 12 hours) by checking in with a lady who, while nice, seemed very scatter-brained and almost as if she were on drugs. She didn't even realize we had reserved two rooms until we brought it to her attention. We stayed on the second floor, right next to the elevator, and all night all I heard was people stomping above me and the elevator noise. The next morning, I put the "please make up room" sign on my door handle, only to come back to the room looking exactly the same. No fresh towels, nothing. The room had not been attended to at all. The hot water was another problem- there IS NO hot water. I finally figured out how to get it luke warm, but it was never hot. I also never got the fan on my heating unit to work. I truly was going to let all of these things slide as I'm typically and easy-going person, and I just wanted a comfortable bed to sleep in. But the final straw was our last morning there, when I woke up to the sound of dripping water. I threw on the lights only to find the ceiling above me leaking. There were huge bulges of water and water dripping out of the drywall seam. I called the front desk immediately. They couldn't get into the room above me, so they just said "it happens sometimes," and that it wouldn't collapse. I have never gotten ready and packed so fast in my life. After all of that, I definitely will not be returning. It's Hilton's for me from now on!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2017</t>
+  </si>
+  <si>
+    <t>I was leery of staying here in the first place due to the Best Western name, I had thought of changing hotels at the last minute, and I truly wish I would have. It started (after having already traveled for 12 hours) by checking in with a lady who, while nice, seemed very scatter-brained and almost as if she were on drugs. She didn't even realize we had reserved two rooms until we brought it to her attention. We stayed on the second floor, right next to the elevator, and all night all I heard was people stomping above me and the elevator noise. The next morning, I put the "please make up room" sign on my door handle, only to come back to the room looking exactly the same. No fresh towels, nothing. The room had not been attended to at all. The hot water was another problem- there IS NO hot water. I finally figured out how to get it luke warm, but it was never hot. I also never got the fan on my heating unit to work. I truly was going to let all of these things slide as I'm typically and easy-going person, and I just wanted a comfortable bed to sleep in. But the final straw was our last morning there, when I woke up to the sound of dripping water. I threw on the lights only to find the ceiling above me leaking....I was leery of staying here in the first place due to the Best Western name, I had thought of changing hotels at the last minute, and I truly wish I would have. It started (after having already traveled for 12 hours) by checking in with a lady who, while nice, seemed very scatter-brained and almost as if she were on drugs. She didn't even realize we had reserved two rooms until we brought it to her attention. We stayed on the second floor, right next to the elevator, and all night all I heard was people stomping above me and the elevator noise. The next morning, I put the "please make up room" sign on my door handle, only to come back to the room looking exactly the same. No fresh towels, nothing. The room had not been attended to at all. The hot water was another problem- there IS NO hot water. I finally figured out how to get it luke warm, but it was never hot. I also never got the fan on my heating unit to work. I truly was going to let all of these things slide as I'm typically and easy-going person, and I just wanted a comfortable bed to sleep in. But the final straw was our last morning there, when I woke up to the sound of dripping water. I threw on the lights only to find the ceiling above me leaking. There were huge bulges of water and water dripping out of the drywall seam. I called the front desk immediately. They couldn't get into the room above me, so they just said "it happens sometimes," and that it wouldn't collapse. I have never gotten ready and packed so fast in my life. After all of that, I definitely will not be returning. It's Hilton's for me from now on!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r506042011-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506042011</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Great hotel at this price point</t>
+  </si>
+  <si>
+    <t>Very impressed for a Best Western.  New, clean, convenient to business in the NW Beltway.  Room amenities are great (refrig, MW, Keurig).  Very quiet, especially for being right on the Beltway.  Great steakhouse next door.  Breakfast typical of this style hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Very impressed for a Best Western.  New, clean, convenient to business in the NW Beltway.  Room amenities are great (refrig, MW, Keurig).  Very quiet, especially for being right on the Beltway.  Great steakhouse next door.  Breakfast typical of this style hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r504467847-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504467847</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Bang for buck</t>
+  </si>
+  <si>
+    <t>Very well kept hotel, excellent friendly staff. They were working on grounds during my stay Looks awesome . Had issue with Shower, was moved right away Very happy with quality. The breakfast offering was great. I had to congratulate staffMoreShow less</t>
+  </si>
+  <si>
+    <t>Very well kept hotel, excellent friendly staff. They were working on grounds during my stay Looks awesome . Had issue with Shower, was moved right away Very happy with quality. The breakfast offering was great. I had to congratulate staffMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r501491686-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501491686</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Best Western Plus</t>
+  </si>
+  <si>
+    <t>This hotel has a great staff.  The guest room was clean room with several amenities (safe, small refrigerator, &amp; coffee maker).  The area where this hotel is located is great next to an upper scale restaurant but yet take out places all around.  I keep coming back to this hotel mostly because of the people / staff and clean / fresh rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel has a great staff.  The guest room was clean room with several amenities (safe, small refrigerator, &amp; coffee maker).  The area where this hotel is located is great next to an upper scale restaurant but yet take out places all around.  I keep coming back to this hotel mostly because of the people / staff and clean / fresh rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r488339328-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488339328</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>Houston Heat</t>
+  </si>
+  <si>
+    <t>Very good location in Houston. Excellent steakhouse across the parking lot. Many other restaurants close by.  Hotel was clean, and quiet. Parking was ample and seemed safe. Staff was helpful when I asked about local restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Vikram S, Front Office Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Very good location in Houston. Excellent steakhouse across the parking lot. Many other restaurants close by.  Hotel was clean, and quiet. Parking was ample and seemed safe. Staff was helpful when I asked about local restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r484538580-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484538580</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>OK except for smell in room</t>
+  </si>
+  <si>
+    <t>This place was OK for a one night stay, which is how long we did.  The room, as soon as we opened the door, had a strong smell of either a stale locker room, or stale clothes that needed about 5 washings.  The carpeting needs to be cleaned more that once a year to alleviate the staleness of the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>This place was OK for a one night stay, which is how long we did.  The room, as soon as we opened the door, had a strong smell of either a stale locker room, or stale clothes that needed about 5 washings.  The carpeting needs to be cleaned more that once a year to alleviate the staleness of the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r484257161-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484257161</t>
+  </si>
+  <si>
+    <t>05/14/2017</t>
+  </si>
+  <si>
+    <t>Comfort at a good price</t>
+  </si>
+  <si>
+    <t>Nice room with great bed &amp; hot shower. Lots of food options nearby. Perfect for a traveler passing through Houston. Breakfast was above average.  Internet was good. I would stay there again. Friendly staff.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Nice room with great bed &amp; hot shower. Lots of food options nearby. Perfect for a traveler passing through Houston. Breakfast was above average.  Internet was good. I would stay there again. Friendly staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r465162270-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465162270</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>Relaxing</t>
+  </si>
+  <si>
+    <t>Arrived early and our room wasn't ready. Paren and his staff cleaned the room and had it ready in 10 minutes. The breakfast spread was the best I had seen in any Best Western I had stayed . A staff member keep checking to make sure their was plenty available for the stragglers.Very quiet place and friendly staff. Wish they had a morning paper. Mr Vik Singh should be proud of his motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Arrived early and our room wasn't ready. Paren and his staff cleaned the room and had it ready in 10 minutes. The breakfast spread was the best I had seen in any Best Western I had stayed . A staff member keep checking to make sure their was plenty available for the stragglers.Very quiet place and friendly staff. Wish they had a morning paper. Mr Vik Singh should be proud of his motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r461336230-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461336230</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>All star employee was great</t>
+  </si>
+  <si>
+    <t>Hotel had an odor in the room and the bed I believe was not cleaned appropriately but when you just want sleep at 2AM I did not report it. Even though I did not I know the man who checked us in would have done everything and anything he could have to make it better than anything. I think a housekeeping check prior to us checking in could have helped. other than the bedding the room was clean service was stellar and the hotel was beautiful!MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel had an odor in the room and the bed I believe was not cleaned appropriately but when you just want sleep at 2AM I did not report it. Even though I did not I know the man who checked us in would have done everything and anything he could have to make it better than anything. I think a housekeeping check prior to us checking in could have helped. other than the bedding the room was clean service was stellar and the hotel was beautiful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r461111592-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461111592</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>This was nice hotel close to our distinction. We where please with rooms and the comfort of the beds. Hot breakfast with bacon and sausage, hash browns, eggs (little dry) fruit, lots of choices. Easy check in. Enter by the restaurant. MoreShow less</t>
+  </si>
+  <si>
+    <t>This was nice hotel close to our distinction. We where please with rooms and the comfort of the beds. Hot breakfast with bacon and sausage, hash browns, eggs (little dry) fruit, lots of choices. Easy check in. Enter by the restaurant. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r405975664-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>405975664</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>This location is close to one of our offices so it is nice to have a clean, restful place to stay when we are traveling.  The staff is very efficient, the rooms are clean and beds are very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2016</t>
+  </si>
+  <si>
+    <t>This location is close to one of our offices so it is nice to have a clean, restful place to stay when we are traveling.  The staff is very efficient, the rooms are clean and beds are very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r404080921-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>404080921</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Convenience to Airport and Sam Houston Toll Road acess.</t>
+  </si>
+  <si>
+    <t>This place stands out head and shoulders above most Best Western's I've been in... and I've stayed in a lot!  First of all, they let me check in early.... upgraded my room, and treated me with respect.  Not that I drive for that... but it just seemed natural to them.The breakfast food was a notch above most... and the bed was the most comfortable ever.  The staff was extremely accomodating too.  I will come back to this BW.  Thanks Sonny!.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place stands out head and shoulders above most Best Western's I've been in... and I've stayed in a lot!  First of all, they let me check in early.... upgraded my room, and treated me with respect.  Not that I drive for that... but it just seemed natural to them.The breakfast food was a notch above most... and the bed was the most comfortable ever.  The staff was extremely accomodating too.  I will come back to this BW.  Thanks Sonny!.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r403073687-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403073687</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Excellent experience for the price</t>
+  </si>
+  <si>
+    <t>Hotel appears and is in excellent condition and is a great value for the price range. Friendly staff eager to please. Very clean with an extra touch of class and well kept grounds. The room(king bed) was very clean and pleasant in appearance. Good WI-FI, decent breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel appears and is in excellent condition and is a great value for the price range. Friendly staff eager to please. Very clean with an extra touch of class and well kept grounds. The room(king bed) was very clean and pleasant in appearance. Good WI-FI, decent breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r368325453-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>368325453</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Amazing Hospitality</t>
+  </si>
+  <si>
+    <t>We have stayed here before and find it a perfect home away from home. This trip we were here for a week. The staff was awesome. I would like to single out one in particular who was a total professional and made us feel really welcome. His name was Param. Please pass on a "Job Well Done" to him from us.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed here before and find it a perfect home away from home. This trip we were here for a week. The staff was awesome. I would like to single out one in particular who was a total professional and made us feel really welcome. His name was Param. Please pass on a "Job Well Done" to him from us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r367669899-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>367669899</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Close to Sam Houston Race Park</t>
+  </si>
+  <si>
+    <t>Stayed there because of the proximity to the Sam Houston Race Park. I live more than 20 miles from Sam Houston Race Park. I don't like to drive. I go to the Best Western motel because it is near Sam Houston Race Park. I just need to drive to the hotel one time then go home one time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed there because of the proximity to the Sam Houston Race Park. I live more than 20 miles from Sam Houston Race Park. I don't like to drive. I go to the Best Western motel because it is near Sam Houston Race Park. I just need to drive to the hotel one time then go home one time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r367078186-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>367078186</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Rained out in Houston</t>
+  </si>
+  <si>
+    <t>Arrived in Houston in the middle of the week hoping to get some sightseeinng before some conference. the city is huge and relied on our GPS to get around. the weekend turn to be a bit of a surprise when it started to rain and would not stop, the flooding was so bad that we were stuck in our hotel for a few days and the conference was cancelled. Sonny at our hotel was a great help. We were fortunate to have stayed at such a friendly placeMoreShow less</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Arrived in Houston in the middle of the week hoping to get some sightseeinng before some conference. the city is huge and relied on our GPS to get around. the weekend turn to be a bit of a surprise when it started to rain and would not stop, the flooding was so bad that we were stuck in our hotel for a few days and the conference was cancelled. Sonny at our hotel was a great help. We were fortunate to have stayed at such a friendly placeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r354782645-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354782645</t>
+  </si>
+  <si>
+    <t>03/12/2016</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>This is a nice place and very clean. Prices are kinda expensive. Staff is friendly and they serve continental breakfast. Nice place. Jacuzzi tub rooms. Would definitely stay again.Decorated nice. Kid friendly. Pool , excercise room.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>This is a nice place and very clean. Prices are kinda expensive. Staff is friendly and they serve continental breakfast. Nice place. Jacuzzi tub rooms. Would definitely stay again.Decorated nice. Kid friendly. Pool , excercise room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r350914019-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350914019</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Best Best Western in Houston</t>
+  </si>
+  <si>
+    <t>It's my opinion, of course, but this Best Western Plus ranks very high with us.  We've stayed here several times over the past few years and plan to be there again in April.  The breakfast area is spacious, the hotel is clean and inviting, and the room was quiet and comfortable.  We asked for a quiet room and got one on the third floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, Guest Relations Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded February 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2016</t>
+  </si>
+  <si>
+    <t>It's my opinion, of course, but this Best Western Plus ranks very high with us.  We've stayed here several times over the past few years and plan to be there again in April.  The breakfast area is spacious, the hotel is clean and inviting, and the room was quiet and comfortable.  We asked for a quiet room and got one on the third floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r349868320-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349868320</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel - good value</t>
+  </si>
+  <si>
+    <t>Very clean hotel, accommodating staff, suite bathtubs are small but only a minor issue.  Location is good for accessing sites around town.  Room was clean and well maintained.  Missed my temperpedic bed but overall bed was average.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean hotel, accommodating staff, suite bathtubs are small but only a minor issue.  Location is good for accessing sites around town.  Room was clean and well maintained.  Missed my temperpedic bed but overall bed was average.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r330084962-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>330084962</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The food in the morning was adequate. They even called to make sure that our room was serviced for. Kindly called when we left an item in our room after we checked out. the only downside was if the AC wasn't running, the room would smell wet, quite humid smell.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2015</t>
+  </si>
+  <si>
+    <t>The food in the morning was adequate. They even called to make sure that our room was serviced for. Kindly called when we left an item in our room after we checked out. the only downside was if the AC wasn't running, the room would smell wet, quite humid smell.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r328731611-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328731611</t>
+  </si>
+  <si>
+    <t>11/23/2015</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>the overall stay at Best Western was very good, employees were very friendly, helpful and professional. Room was clean and made up every day for my return, location was very convenient in regards to my business location.MoreShow less</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded November 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2015</t>
+  </si>
+  <si>
+    <t>the overall stay at Best Western was very good, employees were very friendly, helpful and professional. Room was clean and made up every day for my return, location was very convenient in regards to my business location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r324689601-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324689601</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>Best in town for the price</t>
+  </si>
+  <si>
+    <t>It's been over a year since I was here, but things have only gotten better. The upkeep to the hotel is awesome. Other than the rugs, it looks brand new. I hate that it went to NON-SMOKING, but I can live with that. The service people are awesome and I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>It's been over a year since I was here, but things have only gotten better. The upkeep to the hotel is awesome. Other than the rugs, it looks brand new. I hate that it went to NON-SMOKING, but I can live with that. The service people are awesome and I highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r322244955-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322244955</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Do not attempt to make any changes or request to reservations!</t>
+  </si>
+  <si>
+    <t>I requested to change the date of my reservation and I was told because I prepaid that I was not able to change the date.  I then requested to cancel my reservation and was once again denied because I had already prepaid.  It makes no sense that because I prepaid that I can not cancel or change the date of my reservation.  I did not stay in the hotel on the night of the 25th even though I paid for it.  Unless something changes, I do not see myself nor my company ever conducting business with Best Western.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded October 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2015</t>
+  </si>
+  <si>
+    <t>I requested to change the date of my reservation and I was told because I prepaid that I was not able to change the date.  I then requested to cancel my reservation and was once again denied because I had already prepaid.  It makes no sense that because I prepaid that I can not cancel or change the date of my reservation.  I did not stay in the hotel on the night of the 25th even though I paid for it.  Unless something changes, I do not see myself nor my company ever conducting business with Best Western.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r316298136-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316298136</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Plain Jane</t>
+  </si>
+  <si>
+    <t>The website photos of the rooms, lobby, and grounds are much more impressive than this place actually is in reality.  It's just a very small plain Jane, no frills, basic needs Best Western, nothing more, nothing less...Looks to be a fairly new property, Rooms were clean, the front desk staff was friendly, and I received the proper awards level recognition of a free bottle of water and bag of nuts.  The in room amenities were your average mini shampoo and conditioner along with cheap “off brand” coffee.They offer the usual free continental breakfast downstairs in the lobby each morning which I will rate as above average for a hotel of this star level and price point.  In addition to the usual cereal, Danish and make your own waffle type fare, they also offered eggs &amp; sausage, biscuits &amp; gravy as well as premium coffee.   The property is located right off the toll road with easy access in both directions, there are a few food options within easy walking distance, a Jack in the box, a Mexican restaurant, and a steak house. Sam Houston Race Park (Horse Racing) is a half mile away.Not really much more to report on good or bad, just your average, generic clean safe place to hang your hat for the night BW experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2015</t>
+  </si>
+  <si>
+    <t>The website photos of the rooms, lobby, and grounds are much more impressive than this place actually is in reality.  It's just a very small plain Jane, no frills, basic needs Best Western, nothing more, nothing less...Looks to be a fairly new property, Rooms were clean, the front desk staff was friendly, and I received the proper awards level recognition of a free bottle of water and bag of nuts.  The in room amenities were your average mini shampoo and conditioner along with cheap “off brand” coffee.They offer the usual free continental breakfast downstairs in the lobby each morning which I will rate as above average for a hotel of this star level and price point.  In addition to the usual cereal, Danish and make your own waffle type fare, they also offered eggs &amp; sausage, biscuits &amp; gravy as well as premium coffee.   The property is located right off the toll road with easy access in both directions, there are a few food options within easy walking distance, a Jack in the box, a Mexican restaurant, and a steak house. Sam Houston Race Park (Horse Racing) is a half mile away.Not really much more to report on good or bad, just your average, generic clean safe place to hang your hat for the night BW experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r314964235-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>314964235</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Constant Travel</t>
+  </si>
+  <si>
+    <t>This hotel is a quiet and comfortable respite after a busy day of travel or long day at the office.  The staff is extremely friendly, the rooms spacious, and the beds extremely comfortable.  Great value when compared to other hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>This hotel is a quiet and comfortable respite after a busy day of travel or long day at the office.  The staff is extremely friendly, the rooms spacious, and the beds extremely comfortable.  Great value when compared to other hotels in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r292067169-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292067169</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Decent hotel but depends on the room you get.</t>
+  </si>
+  <si>
+    <t>Overall, a decent hotel, but the rooms make all the difference.  The business folks I was traveling with were split.  Two would go back and two wouldn't go back due to plumbing issues in both rooms and the smell in certain rooms was of mold.  The breakfast was average but there was enough of it to go around.  Very easy to check in and get the room key.  Right off the Beltway which is very nice as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded August 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2015</t>
+  </si>
+  <si>
+    <t>Overall, a decent hotel, but the rooms make all the difference.  The business folks I was traveling with were split.  Two would go back and two wouldn't go back due to plumbing issues in both rooms and the smell in certain rooms was of mold.  The breakfast was average but there was enough of it to go around.  Very easy to check in and get the room key.  Right off the Beltway which is very nice as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r288685963-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288685963</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Nice since remodel</t>
+  </si>
+  <si>
+    <t>Nice place, people are nice and the rooms are nice too. Just make sure you specify a non smoking room. If you are worried about your vehicle like I always am, there is a guy that sits outside in a chair all night long watching the parking lot. I'd stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Nice place, people are nice and the rooms are nice too. Just make sure you specify a non smoking room. If you are worried about your vehicle like I always am, there is a guy that sits outside in a chair all night long watching the parking lot. I'd stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r286716493-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286716493</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Meeting </t>
+  </si>
+  <si>
+    <t>I had a King room it was very clean, quiet and the bed was so comfortable I wish I had time to just relax all day. The Breakfast was good also. Great size room for the family. Very good location right next to the Beltway.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2015</t>
+  </si>
+  <si>
+    <t>I had a King room it was very clean, quiet and the bed was so comfortable I wish I had time to just relax all day. The Breakfast was good also. Great size room for the family. Very good location right next to the Beltway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r274581361-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274581361</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>I stay here a lot.  I am in town for business weekly and this is the only hotel I stay in.  I love the staff.  They make me feel at home and are always willing  to help.  Very cordial... The hotel has easy access to the Beltway 8 in Houston.  Great location for whichever direction a person needs to head out.  I wouldn't stay anywhere else...MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2015</t>
+  </si>
+  <si>
+    <t>I stay here a lot.  I am in town for business weekly and this is the only hotel I stay in.  I love the staff.  They make me feel at home and are always willing  to help.  Very cordial... The hotel has easy access to the Beltway 8 in Houston.  Great location for whichever direction a person needs to head out.  I wouldn't stay anywhere else...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r270652065-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270652065</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>Better than I thought!</t>
+  </si>
+  <si>
+    <t>First time staying in a Best Western.  I was very concern that the location and area was going to be bad.  Not the Case! Hotel was very clean.  Remodeled, new furniture, and beds was comfortable.  Breakfast area was small, however full breakfast was offered and very good.   Off Tollway 8 and service road. Lots of restaurant and shopping near by.  Receptionist Anna wonderful, very friendly and helpful. Security Guard on duty nightly.  I would recommend  and stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>First time staying in a Best Western.  I was very concern that the location and area was going to be bad.  Not the Case! Hotel was very clean.  Remodeled, new furniture, and beds was comfortable.  Breakfast area was small, however full breakfast was offered and very good.   Off Tollway 8 and service road. Lots of restaurant and shopping near by.  Receptionist Anna wonderful, very friendly and helpful. Security Guard on duty nightly.  I would recommend  and stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r269822013-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>269822013</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>One Night for Business</t>
+  </si>
+  <si>
+    <t>This hotel was great for the one night we stayed and I would be glad to stay here longer. The outside appears was great with a well tended entrance.  It was clean, fresh and everyone was friendly.  The breakfast was very good for what I wanted.  I would gladly recommend it to anyone and will stay here again if need to for any reason.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded May 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was great for the one night we stayed and I would be glad to stay here longer. The outside appears was great with a well tended entrance.  It was clean, fresh and everyone was friendly.  The breakfast was very good for what I wanted.  I would gladly recommend it to anyone and will stay here again if need to for any reason.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r261576790-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261576790</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>There was gum on my sheets and nail clipping between them. I would not recommend this hotel at all.  The location is in Houston. Best Western  Sam Houston Inn &amp; Suites Houston, Texas 281*970*7777 281*894*2689 FaxMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded April 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2015</t>
+  </si>
+  <si>
+    <t>There was gum on my sheets and nail clipping between them. I would not recommend this hotel at all.  The location is in Houston. Best Western  Sam Houston Inn &amp; Suites Houston, Texas 281*970*7777 281*894*2689 FaxMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r261045658-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261045658</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Enjoyable Stay</t>
+  </si>
+  <si>
+    <t>Very enjoyable stay at this hotel. Started the right way as the front desk staff were pleasant and eager to help. I arrived a little earlier than check in was allowed and my room wasn't quite ready. The front desk staff offered me a beverage and said that I could wait in the lobby area which was pleasant enough. It also served as the breakfast area. The room was ready about 30 mins in and I entered to find a pleasant room that had been cleaned well. The bed was relaxing and I had a good night. Breakfast was simple but had all the essentials you expect in a hotel of this nature these days. Would recommend to travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded March 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2015</t>
+  </si>
+  <si>
+    <t>Very enjoyable stay at this hotel. Started the right way as the front desk staff were pleasant and eager to help. I arrived a little earlier than check in was allowed and my room wasn't quite ready. The front desk staff offered me a beverage and said that I could wait in the lobby area which was pleasant enough. It also served as the breakfast area. The room was ready about 30 mins in and I entered to find a pleasant room that had been cleaned well. The bed was relaxing and I had a good night. Breakfast was simple but had all the essentials you expect in a hotel of this nature these days. Would recommend to travelers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r260257161-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260257161</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Could be better</t>
+  </si>
+  <si>
+    <t>Puke in the elevator and no wake up call.  We told the staff about the puke but they never fully cleaned it up.  I asked for a 7am wake up call and never got it.  I asked them several times to clean it and they didn't.MoreShow less</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded March 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2015</t>
+  </si>
+  <si>
+    <t>Puke in the elevator and no wake up call.  We told the staff about the puke but they never fully cleaned it up.  I asked for a 7am wake up call and never got it.  I asked them several times to clean it and they didn't.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r256407205-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256407205</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, close to racetrack</t>
+  </si>
+  <si>
+    <t>If you need a place close to Sam Houston Raceway, this is the one . . . well maintained, clean, nice hotel. You can access the raceway from a back road and avoid the Beltway and traffic. There are restaurants close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2015</t>
+  </si>
+  <si>
+    <t>If you need a place close to Sam Houston Raceway, this is the one . . . well maintained, clean, nice hotel. You can access the raceway from a back road and avoid the Beltway and traffic. There are restaurants close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r255915796-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255915796</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>The Best, Best Western</t>
+  </si>
+  <si>
+    <t>I love the staff and there professionalism, the bed's are extremely comfortable and the breakfast is very good. Your close to several Eateries and close to the Mall. The price of the room was very economical compared to the nice quality of the whole experience in general.MoreShow less</t>
+  </si>
+  <si>
+    <t>I love the staff and there professionalism, the bed's are extremely comfortable and the breakfast is very good. Your close to several Eateries and close to the Mall. The price of the room was very economical compared to the nice quality of the whole experience in general.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r262851154-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262851154</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t>Sam Houston Best Western</t>
+  </si>
+  <si>
+    <t>Has been a great hotel for me.  Extremely easy access to Beltway 8.  Staff awesome.  Feel very safe and secure.  I have stayed here for over a year numerous times.  I will continue to stay here.  Close to either side of Houston.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r241205010-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241205010</t>
+  </si>
+  <si>
+    <t>11/23/2014</t>
+  </si>
+  <si>
+    <t>Sam Houston</t>
+  </si>
+  <si>
+    <t>We stayed here as it was close to family members. We had a family gathering and cruise out of Galveston TX and this spot was in the immediate meeting area. The first weekend we arrived there was a huge Country Music concert at the track and it was very busy and a bit noisy but not too bad. The next weekend was a massive Halloween 2 day party also at the race track next door and again it was a bit noisy and busy but not real bad. The staff apologized for the activity but kept it under control. Very happy!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded November 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here as it was close to family members. We had a family gathering and cruise out of Galveston TX and this spot was in the immediate meeting area. The first weekend we arrived there was a huge Country Music concert at the track and it was very busy and a bit noisy but not too bad. The next weekend was a massive Halloween 2 day party also at the race track next door and again it was a bit noisy and busy but not real bad. The staff apologized for the activity but kept it under control. Very happy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r237281650-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237281650</t>
+  </si>
+  <si>
+    <t>10/31/2014</t>
+  </si>
+  <si>
+    <t>Very clean and modern hotel</t>
+  </si>
+  <si>
+    <t>The hotel was awesome. You can tell they have put a lot of time and money into updating it. The service by the staff was excellent as well. They always had everything I needed and were very courteous. The pool outside was a great place to relax.I felt this hotel was up to par with many other bigger name brand hotels but at 2/3 the price. Would absolutely recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was awesome. You can tell they have put a lot of time and money into updating it. The service by the staff was excellent as well. They always had everything I needed and were very courteous. The pool outside was a great place to relax.I felt this hotel was up to par with many other bigger name brand hotels but at 2/3 the price. Would absolutely recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r234147932-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234147932</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>Clean and affordable</t>
+  </si>
+  <si>
+    <t>For me when searching for a hotel, I want affordable, CLEAN, NOT allow pets, and a free breakfast.  This place had all of those.  We were greeted by a friendly face on check in, and check in was quick which is nice when its late and you have small children.Breakfast was good.  Pastries, cereal, eggs, sausage, muffins, bagels, fresh (texas shaped) waffles.  We heard no noise from other rooms or patrons.MoreShow less</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded October 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2014</t>
+  </si>
+  <si>
+    <t>For me when searching for a hotel, I want affordable, CLEAN, NOT allow pets, and a free breakfast.  This place had all of those.  We were greeted by a friendly face on check in, and check in was quick which is nice when its late and you have small children.Breakfast was good.  Pastries, cereal, eggs, sausage, muffins, bagels, fresh (texas shaped) waffles.  We heard no noise from other rooms or patrons.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r228227174-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228227174</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>Very clean hotel</t>
+  </si>
+  <si>
+    <t>I stayed at this Best Western for 2 nights for business. After several screw ups on my employer's end, I ended up having to book the hotel on my own as I was leaving town for the trip.  Sunny at the front desk took my reservation and was very friendly and helpful. She also checked me in when I arrived later that night. The hotel was clean, bright, and inviting. The room was also very clean and the bed was super comfy.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded September 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this Best Western for 2 nights for business. After several screw ups on my employer's end, I ended up having to book the hotel on my own as I was leaving town for the trip.  Sunny at the front desk took my reservation and was very friendly and helpful. She also checked me in when I arrived later that night. The hotel was clean, bright, and inviting. The room was also very clean and the bed was super comfy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r209769239-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209769239</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>Room 210: Will never come back</t>
+  </si>
+  <si>
+    <t>I stay in hotels at 5 days a month at least. So far I have a good experience with best western. I will never come back. Rooms are dirty and smelly. Too much noise over night. That is the worst hotel I have ever stayed atMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded June 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2014</t>
+  </si>
+  <si>
+    <t>I stay in hotels at 5 days a month at least. So far I have a good experience with best western. I will never come back. Rooms are dirty and smelly. Too much noise over night. That is the worst hotel I have ever stayed atMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r209097465-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209097465</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>Very unsafe &amp; Loud Hotel</t>
+  </si>
+  <si>
+    <t>Overall experience was horrible from top to bottom, the police were at the establishment twice over a 24 hour period due to violence.  The security issues were scary and an extremely loud and outdated facility from top to bottom.  The ownership group was loud and berated several people in the front lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall experience was horrible from top to bottom, the police were at the establishment twice over a 24 hour period due to violence.  The security issues were scary and an extremely loud and outdated facility from top to bottom.  The ownership group was loud and berated several people in the front lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r203677936-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203677936</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>Great experience at this hotel</t>
+  </si>
+  <si>
+    <t>The staff is super friendly.  Hotel is nice and clean.  Breakfast was above average for a continental breakfast.  Would stay there again.  If you're attending the races, this hotel is very convenient.  You can skip the restaurant across the street though - Abuelo's - it is not part of the chain of restaurants.  This one is more like fast food.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>The staff is super friendly.  Hotel is nice and clean.  Breakfast was above average for a continental breakfast.  Would stay there again.  If you're attending the races, this hotel is very convenient.  You can skip the restaurant across the street though - Abuelo's - it is not part of the chain of restaurants.  This one is more like fast food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r201631800-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201631800</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Smelly room</t>
+  </si>
+  <si>
+    <t>We were given a smoking room after we had asked for non smoking room when we made our reservations. The room smelled so bad that we had trouble sleeping. Other than that, the stay was OK. The staff was not able to offer us another room. The hotel was relatively clean, the staff was friendly, the breakfast was OK. I would stay at a Best western, but not at this one.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r200297407-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200297407</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>Extremely polite and friendly staff. Enjoyed the large room and easy access. I have had bad experiences in the past, but in the recent stays in Abilene and here in Houston, I have been  so pleasantly surprised with the rooms and the staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r195742104-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195742104</t>
+  </si>
+  <si>
+    <t>02/28/2014</t>
+  </si>
+  <si>
+    <t>Unmanned Front Desk</t>
+  </si>
+  <si>
+    <t>Found front desk unmanned when we arrived at check-in.  Took 45 minutes for desk clerk to arrive to check us in.  Had to use front desk phone to reach clerk.  Clerk gave us 2 different excuses as to why the desk was unmanned. Also had keys that didn't work and had to have them reprogrammed twice during our stay.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r195181258-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195181258</t>
+  </si>
+  <si>
+    <t>02/24/2014</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>The rooms were large but the furnishings were sparse. The breakfast was basic. The hotel was very clean and he staff were very friendly. The microwave in the room is a plus as food bought outside can be heated and eaten in the room. Pity I couldn't swim on the pool because of the weather because although it was small, it looked well maintained. It will be suitable for short business trips.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r194225950-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194225950</t>
+  </si>
+  <si>
+    <t>02/15/2014</t>
+  </si>
+  <si>
+    <t>Nice and Roomy</t>
+  </si>
+  <si>
+    <t>We stayed here one night for our Valentine's day get-away. The room was nice and big, although I didn't like the side chair, which I thought it was a recliner, but it is just a simple chair with an ottoman underneath that gave me a hard time to pull it out from under and then , the cushion was hard and it hurt my behind. They should consider having nice comfortable recliners on all their rooms. Also their coffee maker is set-up in the bathroom, and I didn't like that either because there is bacteria in the bathrooms. Other than that, everything else was good. They have a nice breakfast area, ( my eggs were cold, though). There is a fine Chinese/Japanese Buffet by Willowbrook, called: E Star Restaurant.about, 3-4 miles from the hotel, the food is excellent. Everything else in the hotel's service is great.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here one night for our Valentine's day get-away. The room was nice and big, although I didn't like the side chair, which I thought it was a recliner, but it is just a simple chair with an ottoman underneath that gave me a hard time to pull it out from under and then , the cushion was hard and it hurt my behind. They should consider having nice comfortable recliners on all their rooms. Also their coffee maker is set-up in the bathroom, and I didn't like that either because there is bacteria in the bathrooms. Other than that, everything else was good. They have a nice breakfast area, ( my eggs were cold, though). There is a fine Chinese/Japanese Buffet by Willowbrook, called: E Star Restaurant.about, 3-4 miles from the hotel, the food is excellent. Everything else in the hotel's service is great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r178094259-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178094259</t>
+  </si>
+  <si>
+    <t>09/21/2013</t>
+  </si>
+  <si>
+    <t>A good night!</t>
+  </si>
+  <si>
+    <t>There must have been a change in management here.  It was better than ever this month.  From the reservation to the check in and out experience, it was refreshing.  Thanx for taking good care of me while in Houston!</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r173888359-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>173888359</t>
+  </si>
+  <si>
+    <t>08/24/2013</t>
+  </si>
+  <si>
+    <t>Best Western convenience</t>
+  </si>
+  <si>
+    <t>We stay at this Best Western for several reasons.  I accumulate points using my BW credit card, and this one is convenient to family when we visit.  Staff is friendly, room is clean, has a coffee maker, which some hotels do not provide any more.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r164506468-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164506468</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r147732904-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147732904</t>
+  </si>
+  <si>
+    <t>12/19/2012</t>
+  </si>
+  <si>
+    <t>1 day buss trip</t>
+  </si>
+  <si>
+    <t>This hotel was recommended by a colleague and is frequently used by my employer. I was traveling alone for a quick 1 day business trip. My 1st impression of the location was a bit weary; it was in a commercial area and gated. But when I walked in the lobby I immediately smelled a fresh clean smell that was so pleasant. The front desk staff was very friendly and courteous. I had no issues checking in/out. My room was just as clean and comfy. However, in the evening I was little bothered by a large group of male guest (contract workers) that were in and out of their rooms, hanging out in the hallways and parking lots.  If I were traveling alone on business again I would not feel as comfortable staying there. But if I were accompanied by my spouse I would have no problem staying there again. At check out the housekeeping staff was cleaning rooms and I could smell the fresh smell again.   MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>This hotel was recommended by a colleague and is frequently used by my employer. I was traveling alone for a quick 1 day business trip. My 1st impression of the location was a bit weary; it was in a commercial area and gated. But when I walked in the lobby I immediately smelled a fresh clean smell that was so pleasant. The front desk staff was very friendly and courteous. I had no issues checking in/out. My room was just as clean and comfy. However, in the evening I was little bothered by a large group of male guest (contract workers) that were in and out of their rooms, hanging out in the hallways and parking lots.  If I were traveling alone on business again I would not feel as comfortable staying there. But if I were accompanied by my spouse I would have no problem staying there again. At check out the housekeeping staff was cleaning rooms and I could smell the fresh smell again.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r138234293-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138234293</t>
+  </si>
+  <si>
+    <t>08/24/2012</t>
+  </si>
+  <si>
+    <t>You can do worse...</t>
+  </si>
+  <si>
+    <t>First of all, if you google the address - it will send you to the wrong place.  It's actually about 2.4 miles from where navigation took me.  Exit Windfern/Fallbrook off Beltway 8 to get there.  The breakfast area is very small.  The pool area is decent.  The rooms are refurbished with new furniture, but still have an older smell and feel to them.  The toilet stopped up for really no reason (if you know what I mean) and we couldn't get anyone to fix it.  Overall it was clean, the people were very nice, and the location was convenient.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r126869605-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126869605</t>
+  </si>
+  <si>
+    <t>03/28/2012</t>
+  </si>
+  <si>
+    <t>A small thing</t>
+  </si>
+  <si>
+    <t>We stayed here again this year and I got a little preturbed at a small thing at check out. They charged us $1.50 a day for the safe...we didn't use the safe and to me that is a small rip off. Small but a rip off just the same. Probally will stay there again.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r97692582-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>97692582</t>
+  </si>
+  <si>
+    <t>02/23/2011</t>
+  </si>
+  <si>
+    <t>not very professional</t>
+  </si>
+  <si>
+    <t>I was in town with my girlfriend visiting some friends and this place was very close to their home. The rooms were very clean and seemed very well kept but when you walk into the place, there is a very strong smell of indian food. During our check in, a man came to the front and started screaming at the front desk woman. I don't know if he was a manager or owner but I did not think that was very appropriate nor professional.</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r96051013-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>96051013</t>
+  </si>
+  <si>
+    <t>02/09/2011</t>
+  </si>
+  <si>
+    <t>Bad experience</t>
+  </si>
+  <si>
+    <t>I made reservations online only to find out upon arrival that they had switched my room. I had reseved a King size bed with a jacuzzi only to arrive to a room with double bed with no jacuzzi. The carpet was terrible and it smelled musty inside, underneath the toilet seat was dirty and the towels shed cotton which got all over me. I ended up staying only because it was late and was unfamiliar with the area. They tell me it was mis communication. I find it difficult to be just that since my reservation was printed in black and white and the same thing is in the computer.MoreShow less</t>
+  </si>
+  <si>
+    <t>I made reservations online only to find out upon arrival that they had switched my room. I had reseved a King size bed with a jacuzzi only to arrive to a room with double bed with no jacuzzi. The carpet was terrible and it smelled musty inside, underneath the toilet seat was dirty and the towels shed cotton which got all over me. I ended up staying only because it was late and was unfamiliar with the area. They tell me it was mis communication. I find it difficult to be just that since my reservation was printed in black and white and the same thing is in the computer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r23705042-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>23705042</t>
+  </si>
+  <si>
+    <t>01/19/2009</t>
+  </si>
+  <si>
+    <t>Loved My Stay</t>
+  </si>
+  <si>
+    <t>I just returned from my stay at Best Western Sam Houston Inn &amp; Suites.  I have to say from the beginning of my booking experience to check-out it has been extremely smooth.  I would like to thank Surrinder, Nelly, Dee, and their cleaning staff for excellent customer service.  I booked a block of rooms for my daughter's softball team and the experience has been terrific working with Surrinder, Hotel Manager, and Nelly.  The whole team was very impressed with the size of the rooms, softness of the beds, and especially how clean it was!  There are shops, malls, and restaurants right down the road, very convenient!  I think the location of the hotel is great!  My daughter left something rather expensive in the room and we just checked out, getting ready to get into our car, and one of the cleaning ladies waved at us from the room and showed us what she found.  I found that honorable and that is something you just don't find in this day and age.  For what I paid for my room and the quality of customer service I received, I will definitely return and continue to book my daughter's softball team through this hotel.  Thank you Best Western Sam Houston Inn &amp; Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>I just returned from my stay at Best Western Sam Houston Inn &amp; Suites.  I have to say from the beginning of my booking experience to check-out it has been extremely smooth.  I would like to thank Surrinder, Nelly, Dee, and their cleaning staff for excellent customer service.  I booked a block of rooms for my daughter's softball team and the experience has been terrific working with Surrinder, Hotel Manager, and Nelly.  The whole team was very impressed with the size of the rooms, softness of the beds, and especially how clean it was!  There are shops, malls, and restaurants right down the road, very convenient!  I think the location of the hotel is great!  My daughter left something rather expensive in the room and we just checked out, getting ready to get into our car, and one of the cleaning ladies waved at us from the room and showed us what she found.  I found that honorable and that is something you just don't find in this day and age.  For what I paid for my room and the quality of customer service I received, I will definitely return and continue to book my daughter's softball team through this hotel.  Thank you Best Western Sam Houston Inn &amp; Suites.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1933,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1965,4350 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>133</v>
+      </c>
+      <c r="X12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>149</v>
+      </c>
+      <c r="X15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>149</v>
+      </c>
+      <c r="X16" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>169</v>
+      </c>
+      <c r="X19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>189</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>190</v>
+      </c>
+      <c r="X20" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>189</v>
+      </c>
+      <c r="O21" t="s">
+        <v>141</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>190</v>
+      </c>
+      <c r="X21" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>189</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>204</v>
+      </c>
+      <c r="X22" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>212</v>
+      </c>
+      <c r="O23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>204</v>
+      </c>
+      <c r="X23" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>215</v>
+      </c>
+      <c r="J24" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" t="s">
+        <v>218</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>219</v>
+      </c>
+      <c r="O24" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>220</v>
+      </c>
+      <c r="X24" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" t="s">
+        <v>227</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>219</v>
+      </c>
+      <c r="O25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>204</v>
+      </c>
+      <c r="X25" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" t="s">
+        <v>231</v>
+      </c>
+      <c r="K26" t="s">
+        <v>232</v>
+      </c>
+      <c r="L26" t="s">
+        <v>233</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>234</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>235</v>
+      </c>
+      <c r="X26" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>239</v>
+      </c>
+      <c r="J27" t="s">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s">
+        <v>241</v>
+      </c>
+      <c r="L27" t="s">
+        <v>242</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>234</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>243</v>
+      </c>
+      <c r="X27" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>249</v>
+      </c>
+      <c r="L28" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>234</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>243</v>
+      </c>
+      <c r="X28" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" t="s">
+        <v>254</v>
+      </c>
+      <c r="K29" t="s">
+        <v>255</v>
+      </c>
+      <c r="L29" t="s">
+        <v>256</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>257</v>
+      </c>
+      <c r="O29" t="s">
+        <v>258</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>259</v>
+      </c>
+      <c r="X29" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>263</v>
+      </c>
+      <c r="J30" t="s">
+        <v>264</v>
+      </c>
+      <c r="K30" t="s">
+        <v>265</v>
+      </c>
+      <c r="L30" t="s">
+        <v>266</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>257</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>267</v>
+      </c>
+      <c r="X30" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>271</v>
+      </c>
+      <c r="J31" t="s">
+        <v>272</v>
+      </c>
+      <c r="K31" t="s">
+        <v>273</v>
+      </c>
+      <c r="L31" t="s">
+        <v>274</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>275</v>
+      </c>
+      <c r="O31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>267</v>
+      </c>
+      <c r="X31" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>277</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>278</v>
+      </c>
+      <c r="J32" t="s">
+        <v>279</v>
+      </c>
+      <c r="K32" t="s">
+        <v>280</v>
+      </c>
+      <c r="L32" t="s">
+        <v>281</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>282</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>283</v>
+      </c>
+      <c r="X32" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>287</v>
+      </c>
+      <c r="J33" t="s">
+        <v>288</v>
+      </c>
+      <c r="K33" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" t="s">
+        <v>290</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>282</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>291</v>
+      </c>
+      <c r="X33" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" t="s">
+        <v>296</v>
+      </c>
+      <c r="K34" t="s">
+        <v>297</v>
+      </c>
+      <c r="L34" t="s">
+        <v>298</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>299</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>300</v>
+      </c>
+      <c r="X34" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>303</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>304</v>
+      </c>
+      <c r="J35" t="s">
+        <v>305</v>
+      </c>
+      <c r="K35" t="s">
+        <v>306</v>
+      </c>
+      <c r="L35" t="s">
+        <v>307</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>308</v>
+      </c>
+      <c r="O35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>309</v>
+      </c>
+      <c r="X35" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>313</v>
+      </c>
+      <c r="J36" t="s">
+        <v>314</v>
+      </c>
+      <c r="K36" t="s">
+        <v>315</v>
+      </c>
+      <c r="L36" t="s">
+        <v>316</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>308</v>
+      </c>
+      <c r="O36" t="s">
+        <v>258</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>309</v>
+      </c>
+      <c r="X36" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>318</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>319</v>
+      </c>
+      <c r="J37" t="s">
+        <v>320</v>
+      </c>
+      <c r="K37" t="s">
+        <v>321</v>
+      </c>
+      <c r="L37" t="s">
+        <v>322</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>323</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>324</v>
+      </c>
+      <c r="X37" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>328</v>
+      </c>
+      <c r="J38" t="s">
+        <v>329</v>
+      </c>
+      <c r="K38" t="s">
+        <v>330</v>
+      </c>
+      <c r="L38" t="s">
+        <v>331</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>332</v>
+      </c>
+      <c r="O38" t="s">
+        <v>141</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>333</v>
+      </c>
+      <c r="X38" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>336</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>337</v>
+      </c>
+      <c r="J39" t="s">
+        <v>338</v>
+      </c>
+      <c r="K39" t="s">
+        <v>339</v>
+      </c>
+      <c r="L39" t="s">
+        <v>340</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>332</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>341</v>
+      </c>
+      <c r="X39" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>344</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>345</v>
+      </c>
+      <c r="J40" t="s">
+        <v>346</v>
+      </c>
+      <c r="K40" t="s">
+        <v>347</v>
+      </c>
+      <c r="L40" t="s">
+        <v>348</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>332</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>349</v>
+      </c>
+      <c r="X40" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>352</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>353</v>
+      </c>
+      <c r="J41" t="s">
+        <v>354</v>
+      </c>
+      <c r="K41" t="s">
+        <v>355</v>
+      </c>
+      <c r="L41" t="s">
+        <v>356</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>357</v>
+      </c>
+      <c r="O41" t="s">
+        <v>70</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>358</v>
+      </c>
+      <c r="X41" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>361</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>362</v>
+      </c>
+      <c r="J42" t="s">
+        <v>363</v>
+      </c>
+      <c r="K42" t="s">
+        <v>364</v>
+      </c>
+      <c r="L42" t="s">
+        <v>365</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>357</v>
+      </c>
+      <c r="O42" t="s">
+        <v>141</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>358</v>
+      </c>
+      <c r="X42" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>367</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>368</v>
+      </c>
+      <c r="J43" t="s">
+        <v>369</v>
+      </c>
+      <c r="K43" t="s">
+        <v>370</v>
+      </c>
+      <c r="L43" t="s">
+        <v>371</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>372</v>
+      </c>
+      <c r="O43" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>373</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>374</v>
+      </c>
+      <c r="J44" t="s">
+        <v>375</v>
+      </c>
+      <c r="K44" t="s">
+        <v>376</v>
+      </c>
+      <c r="L44" t="s">
+        <v>377</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>378</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>379</v>
+      </c>
+      <c r="X44" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>382</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>383</v>
+      </c>
+      <c r="J45" t="s">
+        <v>384</v>
+      </c>
+      <c r="K45" t="s">
+        <v>385</v>
+      </c>
+      <c r="L45" t="s">
+        <v>386</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>378</v>
+      </c>
+      <c r="O45" t="s">
+        <v>258</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>379</v>
+      </c>
+      <c r="X45" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>388</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>389</v>
+      </c>
+      <c r="J46" t="s">
+        <v>390</v>
+      </c>
+      <c r="K46" t="s">
+        <v>391</v>
+      </c>
+      <c r="L46" t="s">
+        <v>392</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>378</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>393</v>
+      </c>
+      <c r="X46" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>396</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>397</v>
+      </c>
+      <c r="J47" t="s">
+        <v>398</v>
+      </c>
+      <c r="K47" t="s">
+        <v>399</v>
+      </c>
+      <c r="L47" t="s">
+        <v>400</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>401</v>
+      </c>
+      <c r="O47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>402</v>
+      </c>
+      <c r="X47" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>405</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>406</v>
+      </c>
+      <c r="J48" t="s">
+        <v>407</v>
+      </c>
+      <c r="K48" t="s">
+        <v>408</v>
+      </c>
+      <c r="L48" t="s">
+        <v>409</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>410</v>
+      </c>
+      <c r="O48" t="s">
+        <v>62</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>411</v>
+      </c>
+      <c r="X48" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>414</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J49" t="s">
+        <v>416</v>
+      </c>
+      <c r="K49" t="s">
+        <v>417</v>
+      </c>
+      <c r="L49" t="s">
+        <v>418</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>410</v>
+      </c>
+      <c r="O49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>411</v>
+      </c>
+      <c r="X49" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>420</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>421</v>
+      </c>
+      <c r="J50" t="s">
+        <v>422</v>
+      </c>
+      <c r="K50" t="s">
+        <v>423</v>
+      </c>
+      <c r="L50" t="s">
+        <v>424</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>425</v>
+      </c>
+      <c r="O50" t="s">
+        <v>258</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>411</v>
+      </c>
+      <c r="X50" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>427</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>428</v>
+      </c>
+      <c r="J51" t="s">
+        <v>429</v>
+      </c>
+      <c r="K51" t="s">
+        <v>430</v>
+      </c>
+      <c r="L51" t="s">
+        <v>431</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>425</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>432</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>433</v>
+      </c>
+      <c r="J52" t="s">
+        <v>434</v>
+      </c>
+      <c r="K52" t="s">
+        <v>435</v>
+      </c>
+      <c r="L52" t="s">
+        <v>436</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>425</v>
+      </c>
+      <c r="O52" t="s">
+        <v>258</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>437</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>438</v>
+      </c>
+      <c r="J53" t="s">
+        <v>439</v>
+      </c>
+      <c r="K53" t="s">
+        <v>440</v>
+      </c>
+      <c r="L53" t="s">
+        <v>441</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>442</v>
+      </c>
+      <c r="O53" t="s">
+        <v>62</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>443</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>444</v>
+      </c>
+      <c r="J54" t="s">
+        <v>445</v>
+      </c>
+      <c r="K54" t="s">
+        <v>446</v>
+      </c>
+      <c r="L54" t="s">
+        <v>447</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>448</v>
+      </c>
+      <c r="O54" t="s">
+        <v>70</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>449</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>450</v>
+      </c>
+      <c r="J55" t="s">
+        <v>451</v>
+      </c>
+      <c r="K55" t="s">
+        <v>452</v>
+      </c>
+      <c r="L55" t="s">
+        <v>453</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>442</v>
+      </c>
+      <c r="O55" t="s">
+        <v>70</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>455</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>456</v>
+      </c>
+      <c r="J56" t="s">
+        <v>457</v>
+      </c>
+      <c r="K56" t="s">
+        <v>458</v>
+      </c>
+      <c r="L56" t="s">
+        <v>459</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>460</v>
+      </c>
+      <c r="O56" t="s">
+        <v>62</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>461</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>462</v>
+      </c>
+      <c r="J57" t="s">
+        <v>463</v>
+      </c>
+      <c r="K57" t="s">
+        <v>464</v>
+      </c>
+      <c r="L57" t="s">
+        <v>465</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>466</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>467</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>468</v>
+      </c>
+      <c r="J58" t="s">
+        <v>469</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>470</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>471</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>472</v>
+      </c>
+      <c r="J59" t="s">
+        <v>473</v>
+      </c>
+      <c r="K59" t="s">
+        <v>474</v>
+      </c>
+      <c r="L59" t="s">
+        <v>475</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>476</v>
+      </c>
+      <c r="O59" t="s">
+        <v>62</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>478</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>479</v>
+      </c>
+      <c r="J60" t="s">
+        <v>480</v>
+      </c>
+      <c r="K60" t="s">
+        <v>481</v>
+      </c>
+      <c r="L60" t="s">
+        <v>482</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>483</v>
+      </c>
+      <c r="O60" t="s">
+        <v>62</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>484</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>485</v>
+      </c>
+      <c r="J61" t="s">
+        <v>486</v>
+      </c>
+      <c r="K61" t="s">
+        <v>487</v>
+      </c>
+      <c r="L61" t="s">
+        <v>488</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>489</v>
+      </c>
+      <c r="O61" t="s">
+        <v>62</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>490</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>491</v>
+      </c>
+      <c r="J62" t="s">
+        <v>492</v>
+      </c>
+      <c r="K62" t="s">
+        <v>493</v>
+      </c>
+      <c r="L62" t="s">
+        <v>494</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>495</v>
+      </c>
+      <c r="O62" t="s">
+        <v>70</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>496</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>497</v>
+      </c>
+      <c r="J63" t="s">
+        <v>498</v>
+      </c>
+      <c r="K63" t="s">
+        <v>499</v>
+      </c>
+      <c r="L63" t="s">
+        <v>500</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>495</v>
+      </c>
+      <c r="O63" t="s">
+        <v>62</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>502</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>503</v>
+      </c>
+      <c r="J64" t="s">
+        <v>504</v>
+      </c>
+      <c r="K64" t="s">
+        <v>505</v>
+      </c>
+      <c r="L64" t="s">
+        <v>506</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_50.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_50.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="831">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,87 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r606040986-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>503400</t>
+  </si>
+  <si>
+    <t>606040986</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>Super Comfy Beds, Clean Room and Warm Reception</t>
+  </si>
+  <si>
+    <t>I wish I could remember the name of the man who greeted us when we arrived, but I had motion sickness and didn't think to write it down.  The rooms are clean and large, but the beds....soooo comfy.  It was almost as good as staying at home!!  MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>I wish I could remember the name of the man who greeted us when we arrived, but I had motion sickness and didn't think to write it down.  The rooms are clean and large, but the beds....soooo comfy.  It was almost as good as staying at home!!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r605992487-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>605992487</t>
+  </si>
+  <si>
+    <t>Extremely nice motel</t>
+  </si>
+  <si>
+    <t>This is by far the nicest Best Western I have stayed in. It appeared it might have been freshly remodeled. Very nice and clean, I will definitely stay here again if in the area again. Very reasonably priced as well.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This is by far the nicest Best Western I have stayed in. It appeared it might have been freshly remodeled. Very nice and clean, I will definitely stay here again if in the area again. Very reasonably priced as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r584593736-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584593736</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Not up to par</t>
+  </si>
+  <si>
+    <t>This is the second time we have tried to stay at a best western, mostly for the jacuzzi room, but it will be the last. The room had a musty, smoky smell that was noticeable as soon as we entered. The shower curtain has several holes in it. The jacuzzi looked as if it had not been cleaned in some time. The towels had stains on them. The bed was comfortable and seemed clean but does not make up for all of the others short comings in the room. We use ihg and Hilton brands and after this last chance, we will continue to do so. This will be our last stay at a best western, which doesn’t seem to have the best of anything. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>This is the second time we have tried to stay at a best western, mostly for the jacuzzi room, but it will be the last. The room had a musty, smoky smell that was noticeable as soon as we entered. The shower curtain has several holes in it. The jacuzzi looked as if it had not been cleaned in some time. The towels had stains on them. The bed was comfortable and seemed clean but does not make up for all of the others short comings in the room. We use ihg and Hilton brands and after this last chance, we will continue to do so. This will be our last stay at a best western, which doesn’t seem to have the best of anything. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r561767842-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>503400</t>
-  </si>
-  <si>
     <t>561767842</t>
   </si>
   <si>
@@ -177,9 +246,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded May 2, 2018</t>
   </si>
   <si>
@@ -228,9 +294,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded January 9, 2018</t>
   </si>
   <si>
@@ -240,6 +303,72 @@
     <t>We had a nice quiet stay at Best Western. The rooms were clean and the Jacuzzi was extremely nice. The food choices for the breakfast could have been a bit better, but overall it was a very nice stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r548477934-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548477934</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Great stay &amp; hotel!</t>
+  </si>
+  <si>
+    <t>This was a great experience!  The hotel staff were great and accommodating. Location was very convenient.  The breakfast was good and is better than most hotels. I will for sure stay here again.  I will tell others about this great hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>This was a great experience!  The hotel staff were great and accommodating. Location was very convenient.  The breakfast was good and is better than most hotels. I will for sure stay here again.  I will tell others about this great hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r546929832-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546929832</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>Highly attentive professional staff</t>
+  </si>
+  <si>
+    <t>We were in Houston for the difficult task of meeting with family to place our mother in Hospice.  The warmth and professionalism of the  staff gave us no worries or concerns about our chosen hotel.  Any problem we had was addressed immediately and our comfort was their major concern. This hotel and these staff members were the only real positive and joyful experience for the whole trip for us.  Jenna Front Desk and Vik in Maintenance helped my wife and I through this experience by meeting and exceeding our expectations.   Thank you Best Western Plus for having such great people on your team.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2017</t>
+  </si>
+  <si>
+    <t>We were in Houston for the difficult task of meeting with family to place our mother in Hospice.  The warmth and professionalism of the  staff gave us no worries or concerns about our chosen hotel.  Any problem we had was addressed immediately and our comfort was their major concern. This hotel and these staff members were the only real positive and joyful experience for the whole trip for us.  Jenna Front Desk and Vik in Maintenance helped my wife and I through this experience by meeting and exceeding our expectations.   Thank you Best Western Plus for having such great people on your team.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r541778439-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541778439</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>Great room, customer service and breakfast!</t>
+  </si>
+  <si>
+    <t>My guest room was very clean and tidy.  The hotel staff provided excellent customer service.  The breakfast included eggs, sausage, waffles and a variety of other items.  The price was good for accommodations and everyone there was super helpful &amp; kind.  MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>My guest room was very clean and tidy.  The hotel staff provided excellent customer service.  The breakfast included eggs, sausage, waffles and a variety of other items.  The price was good for accommodations and everyone there was super helpful &amp; kind.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r540734593-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -255,9 +384,6 @@
     <t>I usually stay at this hotel but this time there was mildew all in the bathroom. Not sure if I will stay again. Breakfast was good and staff very helpful. In good area. Room was roomy and beds were comfortable. MoreShow less</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
     <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded November 15, 2017</t>
   </si>
   <si>
@@ -312,6 +438,57 @@
     <t>I was leery of staying here in the first place due to the Best Western name, I had thought of changing hotels at the last minute, and I truly wish I would have. It started (after having already traveled for 12 hours) by checking in with a lady who, while nice, seemed very scatter-brained and almost as if she were on drugs. She didn't even realize we had reserved two rooms until we brought it to her attention. We stayed on the second floor, right next to the elevator, and all night all I heard was people stomping above me and the elevator noise. The next morning, I put the "please make up room" sign on my door handle, only to come back to the room looking exactly the same. No fresh towels, nothing. The room had not been attended to at all. The hot water was another problem- there IS NO hot water. I finally figured out how to get it luke warm, but it was never hot. I also never got the fan on my heating unit to work. I truly was going to let all of these things slide as I'm typically and easy-going person, and I just wanted a comfortable bed to sleep in. But the final straw was our last morning there, when I woke up to the sound of dripping water. I threw on the lights only to find the ceiling above me leaking....I was leery of staying here in the first place due to the Best Western name, I had thought of changing hotels at the last minute, and I truly wish I would have. It started (after having already traveled for 12 hours) by checking in with a lady who, while nice, seemed very scatter-brained and almost as if she were on drugs. She didn't even realize we had reserved two rooms until we brought it to her attention. We stayed on the second floor, right next to the elevator, and all night all I heard was people stomping above me and the elevator noise. The next morning, I put the "please make up room" sign on my door handle, only to come back to the room looking exactly the same. No fresh towels, nothing. The room had not been attended to at all. The hot water was another problem- there IS NO hot water. I finally figured out how to get it luke warm, but it was never hot. I also never got the fan on my heating unit to work. I truly was going to let all of these things slide as I'm typically and easy-going person, and I just wanted a comfortable bed to sleep in. But the final straw was our last morning there, when I woke up to the sound of dripping water. I threw on the lights only to find the ceiling above me leaking. There were huge bulges of water and water dripping out of the drywall seam. I called the front desk immediately. They couldn't get into the room above me, so they just said "it happens sometimes," and that it wouldn't collapse. I have never gotten ready and packed so fast in my life. After all of that, I definitely will not be returning. It's Hilton's for me from now on!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r530385626-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>530385626</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flood / Travel / Customer service </t>
+  </si>
+  <si>
+    <t>I must say Wow!!! My home flooded about a year ago. home owners insurance covered all the repairs and put us up in a hotel immediately that night. So first off thanks AAA and AAA certified hotels seem to be great! We end up at THIS LOCATION down the street.
+Anyways the reason I went through downloading trip advisor and writing this review is because I had arrangements to stay in a hotel with a friend this weekend in Austin two days prior to heading out of town I realize I need to book my own room I’m no longer going to stay with a friend. ￼ this is ACL weekend (Austin City Limits Featival) I spent over 2 1/2 hours looking for a decent price for WITH  my AAA discount and it’s a nightmare 
+        dawns on me I had signed up for best western rewards I stayed there for over a month! I was having trouble getting into my account so more trouble! 
+   so I just call the location I prior stayed at  and I explain the situation. The gentleman I spoke with was able to assist me with figuring out my rewards code, I was able to recover my password via email, AND TO TOP IT OFF he finds me an available room with TWO beds from Saturday until Sunday at 12 PM!! Immediately problem solved. I now have a room for the weekend of ACL.... and under...I must say Wow!!! My home flooded about a year ago. home owners insurance covered all the repairs and put us up in a hotel immediately that night. So first off thanks AAA and AAA certified hotels seem to be great! We end up at THIS LOCATION down the street.Anyways the reason I went through downloading trip advisor and writing this review is because I had arrangements to stay in a hotel with a friend this weekend in Austin two days prior to heading out of town I realize I need to book my own room I’m no longer going to stay with a friend. ￼ this is ACL weekend (Austin City Limits Featival) I spent over 2 1/2 hours looking for a decent price for WITH  my AAA discount and it’s a nightmare         dawns on me I had signed up for best western rewards I stayed there for over a month! I was having trouble getting into my account so more trouble!    so I just call the location I prior stayed at  and I explain the situation. The gentleman I spoke with was able to assist me with figuring out my rewards code, I was able to recover my password via email, AND TO TOP IT OFF he finds me an available room with TWO beds from Saturday until Sunday at 12 PM!! Immediately problem solved. I now have a room for the weekend of ACL.... and under $280 with taxes we don’t have to check out until 12 Monday so we can sleep in after a long weekend. I even have the option to cancel the room by 4 o’clock tomorrow if needed.PARAM provided excellent customer service and went above and beyond to accommodate me he even stayed late so I could drive up there quickly so I could book my room due to it being out of town I wanted some confirmation printed out and he did it for me. Thanks again for helping your boss and other guest deserve to know your hard work. -stephanie Thanks for helping my road trip begin stress-freeMoreShow less</t>
+  </si>
+  <si>
+    <t>I must say Wow!!! My home flooded about a year ago. home owners insurance covered all the repairs and put us up in a hotel immediately that night. So first off thanks AAA and AAA certified hotels seem to be great! We end up at THIS LOCATION down the street.
+Anyways the reason I went through downloading trip advisor and writing this review is because I had arrangements to stay in a hotel with a friend this weekend in Austin two days prior to heading out of town I realize I need to book my own room I’m no longer going to stay with a friend. ￼ this is ACL weekend (Austin City Limits Featival) I spent over 2 1/2 hours looking for a decent price for WITH  my AAA discount and it’s a nightmare 
+        dawns on me I had signed up for best western rewards I stayed there for over a month! I was having trouble getting into my account so more trouble! 
+   so I just call the location I prior stayed at  and I explain the situation. The gentleman I spoke with was able to assist me with figuring out my rewards code, I was able to recover my password via email, AND TO TOP IT OFF he finds me an available room with TWO beds from Saturday until Sunday at 12 PM!! Immediately problem solved. I now have a room for the weekend of ACL.... and under...I must say Wow!!! My home flooded about a year ago. home owners insurance covered all the repairs and put us up in a hotel immediately that night. So first off thanks AAA and AAA certified hotels seem to be great! We end up at THIS LOCATION down the street.Anyways the reason I went through downloading trip advisor and writing this review is because I had arrangements to stay in a hotel with a friend this weekend in Austin two days prior to heading out of town I realize I need to book my own room I’m no longer going to stay with a friend. ￼ this is ACL weekend (Austin City Limits Featival) I spent over 2 1/2 hours looking for a decent price for WITH  my AAA discount and it’s a nightmare         dawns on me I had signed up for best western rewards I stayed there for over a month! I was having trouble getting into my account so more trouble!    so I just call the location I prior stayed at  and I explain the situation. The gentleman I spoke with was able to assist me with figuring out my rewards code, I was able to recover my password via email, AND TO TOP IT OFF he finds me an available room with TWO beds from Saturday until Sunday at 12 PM!! Immediately problem solved. I now have a room for the weekend of ACL.... and under $280 with taxes we don’t have to check out until 12 Monday so we can sleep in after a long weekend. I even have the option to cancel the room by 4 o’clock tomorrow if needed.PARAM provided excellent customer service and went above and beyond to accommodate me he even stayed late so I could drive up there quickly so I could book my room due to it being out of town I wanted some confirmation printed out and he did it for me. Thanks again for helping your boss and other guest deserve to know your hard work. -stephanie Thanks for helping my road trip begin stress-freeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r523539457-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>523539457</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Liars and lowlifes</t>
+  </si>
+  <si>
+    <t>I booked in for 6 weeks of work following the Hurricane. After 2 weeks my key did not work and the front desk on a Sunday told me that I was due to check out. Of course I had my original email confirmation (which I showed the staff) of 6 weeks which got me nothing since they could now get double for the room. Best Western Corporate was absolutely no help so re-think staying at a best western they are independently operated and this one is run by lazy liars. Rooms are marginal and equipment in the hotel is breaking. Maids are do a good job but the front desk staff is arrogant and rude. Since I was notified on a Sunday I had to move I had to search until Monday Morning to find a room. Do yourself a favor do not stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2017</t>
+  </si>
+  <si>
+    <t>I booked in for 6 weeks of work following the Hurricane. After 2 weeks my key did not work and the front desk on a Sunday told me that I was due to check out. Of course I had my original email confirmation (which I showed the staff) of 6 weeks which got me nothing since they could now get double for the room. Best Western Corporate was absolutely no help so re-think staying at a best western they are independently operated and this one is run by lazy liars. Rooms are marginal and equipment in the hotel is breaking. Maids are do a good job but the front desk staff is arrogant and rude. Since I was notified on a Sunday I had to move I had to search until Monday Morning to find a room. Do yourself a favor do not stay here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r506042011-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -375,6 +552,51 @@
     <t>This hotel has a great staff.  The guest room was clean room with several amenities (safe, small refrigerator, &amp; coffee maker).  The area where this hotel is located is great next to an upper scale restaurant but yet take out places all around.  I keep coming back to this hotel mostly because of the people / staff and clean / fresh rooms.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r494730993-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494730993</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Family Owned; Great Customer Service; Great Location</t>
+  </si>
+  <si>
+    <t>We stayed 4 nights in this hotel while our daughter had surgery at a nearby Willowbrook area hospital.  Our granddaughter stayed with us. The hotel was in a great location.  Their complimentary breakfast was wonderful!  A great array of various foods - all was very good.  Our granddaughter really enjoyed the outdoor swimming pool.  Hotel was quiet and had the best staff of any I have seen in years.  Everyone was VERY friendly and professional.  All went out of their way to make our stay a pleasant one!  Would highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Vikram S, Front Office Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>We stayed 4 nights in this hotel while our daughter had surgery at a nearby Willowbrook area hospital.  Our granddaughter stayed with us. The hotel was in a great location.  Their complimentary breakfast was wonderful!  A great array of various foods - all was very good.  Our granddaughter really enjoyed the outdoor swimming pool.  Hotel was quiet and had the best staff of any I have seen in years.  Everyone was VERY friendly and professional.  All went out of their way to make our stay a pleasant one!  Would highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r494444799-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494444799</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Always Helpful and Caring</t>
+  </si>
+  <si>
+    <t>I've stayed at this location about a dozen times in the past year or so.  The staff is excellent; always helpful and truly caring as it comes to customer service.  The property itself has been recently "refreshed" and is very clean and comfortable.  All in all an excellent value.  the property is also convenient to a number of moderately priced restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed at this location about a dozen times in the past year or so.  The staff is excellent; always helpful and truly caring as it comes to customer service.  The property itself has been recently "refreshed" and is very clean and comfortable.  All in all an excellent value.  the property is also convenient to a number of moderately priced restaurants.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r488339328-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -447,6 +669,57 @@
     <t>Nice room with great bed &amp; hot shower. Lots of food options nearby. Perfect for a traveler passing through Houston. Breakfast was above average.  Internet was good. I would stay there again. Friendly staff.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r482054847-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482054847</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Good hotel, great value</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff, clean room and lobby, decent breakfast.  Great value!  There isn't much in the way of good restaurants in the are but we did find 11 Below Brewing where they had good beer and an excellent food truck.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff, clean room and lobby, decent breakfast.  Great value!  There isn't much in the way of good restaurants in the are but we did find 11 Below Brewing where they had good beer and an excellent food truck.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r470753545-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470753545</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Great stay and friendly staff</t>
+  </si>
+  <si>
+    <t>No complaints. Great all around experience. Clean and professional. Had about 8 rooms and every one was happy with service. Will be staying there again. Only improvement would be more hot breakfast items but the staff and décor and comfort exceeded expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>No complaints. Great all around experience. Clean and professional. Had about 8 rooms and every one was happy with service. Will be staying there again. Only improvement would be more hot breakfast items but the staff and décor and comfort exceeded expectations.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r465162270-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -465,12 +738,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded May 8, 2017</t>
-  </si>
-  <si>
-    <t>Responded May 8, 2017</t>
-  </si>
-  <si>
     <t>Arrived early and our room wasn't ready. Paren and his staff cleaned the room and had it ready in 10 minutes. The breakfast spread was the best I had seen in any Best Western I had stayed . A staff member keep checking to make sure their was plenty available for the stragglers.Very quiet place and friendly staff. Wish they had a morning paper. Mr Vik Singh should be proud of his motel.More</t>
   </si>
   <si>
@@ -507,6 +774,57 @@
     <t>This was nice hotel close to our distinction. We where please with rooms and the comfort of the beds. Hot breakfast with bacon and sausage, hash browns, eggs (little dry) fruit, lots of choices. Easy check in. Enter by the restaurant. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r441552267-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441552267</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>Where we stay in NW Houston</t>
+  </si>
+  <si>
+    <t>This is our property of choice when we are in northwest Houston.  It's close to freeways, shopping, restaurants, and for us, family.  The management is helpful, especially Vic, who is there most nights when we check in.  We will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>This is our property of choice when we are in northwest Houston.  It's close to freeways, shopping, restaurants, and for us, family.  The management is helpful, especially Vic, who is there most nights when we check in.  We will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r437949835-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437949835</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Surprised</t>
+  </si>
+  <si>
+    <t>This was booked at a stopover between New Orleans and Corpus Christi. Th hotel was clean and fresh looking.Our room was clean and quite although the AC was set too low for us.The reception helped us find a activity in the evening, gave us directions and other assistance.Breakfast was sufficient although there was a long queue for the waffle machineMoreShow less</t>
+  </si>
+  <si>
+    <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2016</t>
+  </si>
+  <si>
+    <t>This was booked at a stopover between New Orleans and Corpus Christi. Th hotel was clean and fresh looking.Our room was clean and quite although the AC was set too low for us.The reception helped us find a activity in the evening, gave us directions and other assistance.Breakfast was sufficient although there was a long queue for the waffle machineMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r405975664-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -570,6 +888,60 @@
     <t>Hotel appears and is in excellent condition and is a great value for the price range. Friendly staff eager to please. Very clean with an extra touch of class and well kept grounds. The room(king bed) was very clean and pleasant in appearance. Good WI-FI, decent breakfast.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r399792841-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>399792841</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>The customer is NEVER right</t>
+  </si>
+  <si>
+    <t>Besides the large roach on the wall in the hallway, the hair on my bath towel that was never used, and the horrible check in experience...I would give this hotel a .5 out of 5. I was too tired to leave after the 400 mile trip so I stuck it out like a dummy. I didn't get the room I wanted and paid for my birthday. Breakfast was so so. Overall I will stay anywhere else in my next trip to Houston. Also apparently the room that's reserved and paid for isn't the one you get. First time in 10 yrs of staying in hotels that has happened.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded August 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2016</t>
+  </si>
+  <si>
+    <t>Besides the large roach on the wall in the hallway, the hair on my bath towel that was never used, and the horrible check in experience...I would give this hotel a .5 out of 5. I was too tired to leave after the 400 mile trip so I stuck it out like a dummy. I didn't get the room I wanted and paid for my birthday. Breakfast was so so. Overall I will stay anywhere else in my next trip to Houston. Also apparently the room that's reserved and paid for isn't the one you get. First time in 10 yrs of staying in hotels that has happened.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r381027137-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381027137</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Well Maintained Place</t>
+  </si>
+  <si>
+    <t>Very well maintained hotel. Very Good Location. breakfast was nice &amp; variety of breakfast was good.  Nice Courteous Staff. Room amenities were also good. Bed very comfortable. Linen quality was some how old &amp; worn.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Vikram S, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded July 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2016</t>
+  </si>
+  <si>
+    <t>Very well maintained hotel. Very Good Location. breakfast was nice &amp; variety of breakfast was good.  Nice Courteous Staff. Room amenities were also good. Bed very comfortable. Linen quality was some how old &amp; worn.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r368325453-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -639,6 +1011,45 @@
     <t>Arrived in Houston in the middle of the week hoping to get some sightseeinng before some conference. the city is huge and relied on our GPS to get around. the weekend turn to be a bit of a surprise when it started to rain and would not stop, the flooding was so bad that we were stuck in our hotel for a few days and the conference was cancelled. Sonny at our hotel was a great help. We were fortunate to have stayed at such a friendly placeMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r357716802-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357716802</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Anniversary stay in jacuzzi.</t>
+  </si>
+  <si>
+    <t>Firstly, the woman at the front was very professiona. There was a minor issue with the room, and the woman that mans the front desk helped us with the issue, and even got the manager to compensate for the issue. The bed was comfortable, but I recommend bringing your own pillows because the ones available are small. The jacuzzi is a typical one, not small, but not a huge one either. It was comfy, and a good place to relax.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Firstly, the woman at the front was very professiona. There was a minor issue with the room, and the woman that mans the front desk helped us with the issue, and even got the manager to compensate for the issue. The bed was comfortable, but I recommend bringing your own pillows because the ones available are small. The jacuzzi is a typical one, not small, but not a huge one either. It was comfy, and a good place to relax.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r355190576-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355190576</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Night of Relaxation</t>
+  </si>
+  <si>
+    <t>My wife was readily distracted by the quiet atmosphere of the hotel.  Managed to put down her phone and enjoy the quiet and have a very good conversation.  Plenty of eating establishments around, so conversation and good eating were perfect components of a very relaxing day.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife was readily distracted by the quiet atmosphere of the hotel.  Managed to put down her phone and enjoy the quiet and have a very good conversation.  Plenty of eating establishments around, so conversation and good eating were perfect components of a very relaxing day.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r354782645-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -654,9 +1065,6 @@
     <t>This is a nice place and very clean. Prices are kinda expensive. Staff is friendly and they serve continental breakfast. Nice place. Jacuzzi tub rooms. Would definitely stay again.Decorated nice. Kid friendly. Pool , excercise room.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>This is a nice place and very clean. Prices are kinda expensive. Staff is friendly and they serve continental breakfast. Nice place. Jacuzzi tub rooms. Would definitely stay again.Decorated nice. Kid friendly. Pool , excercise room.More</t>
   </si>
   <si>
@@ -705,6 +1113,60 @@
     <t>Very clean hotel, accommodating staff, suite bathtubs are small but only a minor issue.  Location is good for accessing sites around town.  Room was clean and well maintained.  Missed my temperpedic bed but overall bed was average.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r345625886-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345625886</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>In town for a Stakes Race</t>
+  </si>
+  <si>
+    <t>Hands down this is a wonderful place to stay.  First the rooms are awesome.  The bed and bedding is amazing. We travel a lot so I know from experience what great a mattress, pillows, and comforter can do for a good nights sleep. The decor throughout is lovely and modern. The breakfast selection is top notch with the bonus of also having 2 people making omelets for guest. We needed to check in a little early and the front desk attendant was extremely helpful and welcoming. Everyone of the staff that I interacted with were blessings.  They seemed to love their job and it showed. Cuddos to the owners and management of this hotel for employing top notch people that go over and above to your visit memorable.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded February 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2016</t>
+  </si>
+  <si>
+    <t>Hands down this is a wonderful place to stay.  First the rooms are awesome.  The bed and bedding is amazing. We travel a lot so I know from experience what great a mattress, pillows, and comforter can do for a good nights sleep. The decor throughout is lovely and modern. The breakfast selection is top notch with the bonus of also having 2 people making omelets for guest. We needed to check in a little early and the front desk attendant was extremely helpful and welcoming. Everyone of the staff that I interacted with were blessings.  They seemed to love their job and it showed. Cuddos to the owners and management of this hotel for employing top notch people that go over and above to your visit memorable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r332813935-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332813935</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>Great stay and Service!</t>
+  </si>
+  <si>
+    <t>I am a travel agent and I will surely present this hotel as a great option. It was very stylish with an updated decor. I didn ot have a chance to try the breakfast, but I am almost sure it was too a hit by the many people I seen enjoying it.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded December 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2015</t>
+  </si>
+  <si>
+    <t>I am a travel agent and I will surely present this hotel as a great option. It was very stylish with an updated decor. I didn ot have a chance to try the breakfast, but I am almost sure it was too a hit by the many people I seen enjoying it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r330084962-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -774,6 +1236,51 @@
     <t>It's been over a year since I was here, but things have only gotten better. The upkeep to the hotel is awesome. Other than the rugs, it looks brand new. I hate that it went to NON-SMOKING, but I can live with that. The service people are awesome and I highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r324323900-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324323900</t>
+  </si>
+  <si>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>It was a great experience.  The staff was so friendly.  I forgot some items in the room, and before our check out was complete the maid brought them to me! The location was convenient for us.  The trip was quick, but the hotel did feel very "homey".MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2015</t>
+  </si>
+  <si>
+    <t>It was a great experience.  The staff was so friendly.  I forgot some items in the room, and before our check out was complete the maid brought them to me! The location was convenient for us.  The trip was quick, but the hotel did feel very "homey".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r323769970-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323769970</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Smell</t>
+  </si>
+  <si>
+    <t>If you are sensitive to smells do not stay here. As soon as we opened the door to our room it smelled like musk or b.o.. Going to buy air freshener tomorrow and hope it takes care of the situation for the week. Other then that appears to be clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you are sensitive to smells do not stay here. As soon as we opened the door to our room it smelled like musk or b.o.. Going to buy air freshener tomorrow and hope it takes care of the situation for the week. Other then that appears to be clean.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r322244955-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -789,9 +1296,6 @@
     <t>I requested to change the date of my reservation and I was told because I prepaid that I was not able to change the date.  I then requested to cancel my reservation and was once again denied because I had already prepaid.  It makes no sense that because I prepaid that I can not cancel or change the date of my reservation.  I did not stay in the hotel on the night of the 25th even though I paid for it.  Unless something changes, I do not see myself nor my company ever conducting business with Best Western.MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -849,6 +1353,57 @@
     <t>This hotel is a quiet and comfortable respite after a busy day of travel or long day at the office.  The staff is extremely friendly, the rooms spacious, and the beds extremely comfortable.  Great value when compared to other hotels in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r311249997-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311249997</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Some positives, but weak rooms</t>
+  </si>
+  <si>
+    <t>The hotel is a little old and doesn't smell too nice, but the staff was friendly, and it gets points for my 2 most important criteria: the shower head was excellent, and the yogurt was above average (good selection of Yoplait, not some crappy off brand). I rarely stay at Best Westerns-I wasn't exactly sure what it was a "Plus", but pretty decent overallMoreShow less</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is a little old and doesn't smell too nice, but the staff was friendly, and it gets points for my 2 most important criteria: the shower head was excellent, and the yogurt was above average (good selection of Yoplait, not some crappy off brand). I rarely stay at Best Westerns-I wasn't exactly sure what it was a "Plus", but pretty decent overallMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r308001858-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>308001858</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>First Trip to Texas</t>
+  </si>
+  <si>
+    <t>When we first arrived to the hotel we were greeted with smiles. The outside was just beautiful and the inside was gorgeous. I was glad that they put us on the first floor...the room was big enough for my little gymnasts granddaughter to flip around. Breakfast was good, the kids enjoyed the waffles and I appreciated the clean dining area and how homey the place felt. I didn't find the people of Texas on this visit to be very friendly. But I think I got enough Texas hospitality from the staff at the hotel to make me visit again and give Texas another try. Thanks for making the visit worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2015</t>
+  </si>
+  <si>
+    <t>When we first arrived to the hotel we were greeted with smiles. The outside was just beautiful and the inside was gorgeous. I was glad that they put us on the first floor...the room was big enough for my little gymnasts granddaughter to flip around. Breakfast was good, the kids enjoyed the waffles and I appreciated the clean dining area and how homey the place felt. I didn't find the people of Texas on this visit to be very friendly. But I think I got enough Texas hospitality from the staff at the hotel to make me visit again and give Texas another try. Thanks for making the visit worth it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r292067169-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1482,54 @@
     <t>I had a King room it was very clean, quiet and the bed was so comfortable I wish I had time to just relax all day. The Breakfast was good also. Great size room for the family. Very good location right next to the Beltway.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r285010274-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>285010274</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Perfect Place</t>
+  </si>
+  <si>
+    <t>Was in town for an Astro's Baseball Game and quick trip to Galveston.  The room was clean, roomy and comfortable.  Breakfast was complete, fresh and hot.  Front Desk help was fantastic and the exercise room was a little extra that made the stay complete.  Right off Sam Houston Pkwy the place could not have been better located for our stay.  NASA is right down the road as well.  This place is another reason we always choose Best Western First.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Was in town for an Astro's Baseball Game and quick trip to Galveston.  The room was clean, roomy and comfortable.  Breakfast was complete, fresh and hot.  Front Desk help was fantastic and the exercise room was a little extra that made the stay complete.  Right off Sam Houston Pkwy the place could not have been better located for our stay.  NASA is right down the road as well.  This place is another reason we always choose Best Western First.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r275208873-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275208873</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Best Western PLUS Sam Houstin Inn &amp; Suites</t>
+  </si>
+  <si>
+    <t>nice hotel- good location right on Beltway 8.  Pretty flower beds when you drive in.  Friendly hotel staff.  Nice breakfast area. I would stay here again when in the area. rate is similar to other hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2015</t>
+  </si>
+  <si>
+    <t>nice hotel- good location right on Beltway 8.  Pretty flower beds when you drive in.  Friendly hotel staff.  Nice breakfast area. I would stay here again when in the area. rate is similar to other hotels in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r274581361-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -942,15 +1545,6 @@
     <t>I stay here a lot.  I am in town for business weekly and this is the only hotel I stay in.  I love the staff.  They make me feel at home and are always willing  to help.  Very cordial... The hotel has easy access to the Beltway 8 in Houston.  Great location for whichever direction a person needs to head out.  I wouldn't stay anywhere else...MoreShow less</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
-    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded May 28, 2015</t>
-  </si>
-  <si>
-    <t>Responded May 28, 2015</t>
-  </si>
-  <si>
     <t>I stay here a lot.  I am in town for business weekly and this is the only hotel I stay in.  I love the staff.  They make me feel at home and are always willing  to help.  Very cordial... The hotel has easy access to the Beltway 8 in Houston.  Great location for whichever direction a person needs to head out.  I wouldn't stay anywhere else...More</t>
   </si>
   <si>
@@ -999,6 +1593,48 @@
     <t>This hotel was great for the one night we stayed and I would be glad to stay here longer. The outside appears was great with a well tended entrance.  It was clean, fresh and everyone was friendly.  The breakfast was very good for what I wanted.  I would gladly recommend it to anyone and will stay here again if need to for any reason.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r268219314-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268219314</t>
+  </si>
+  <si>
+    <t>04/26/2015</t>
+  </si>
+  <si>
+    <t>Business in Houston</t>
+  </si>
+  <si>
+    <t>This was a nice clean property with a good staff. It is located right next to Tollway 8 which can be inconvenient if you avoid toll roads. There weren't a lot of food choices close by but there was a nice Mexican restaurant across the street and a convenience store next door. There is the Sam Houston Race Park horse track a few hundred yards away which made for a nice distraction from the usual business trip. The only negative was the computer in the business center wouldn't allow for signing in to Hotmail or Facebook but the wireless in room did. The price was a bit high from the usual Best Western, but I would still recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2015</t>
+  </si>
+  <si>
+    <t>This was a nice clean property with a good staff. It is located right next to Tollway 8 which can be inconvenient if you avoid toll roads. There weren't a lot of food choices close by but there was a nice Mexican restaurant across the street and a convenience store next door. There is the Sam Houston Race Park horse track a few hundred yards away which made for a nice distraction from the usual business trip. The only negative was the computer in the business center wouldn't allow for signing in to Hotmail or Facebook but the wireless in room did. The price was a bit high from the usual Best Western, but I would still recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r267957988-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267957988</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel for Business Trip</t>
+  </si>
+  <si>
+    <t>I spent 4 days in Northwest Houston on business. The hotel is only 18 easy miles from GW Airport. The hotel is located directly off the highway. The entrance of the hotel is very nice. Tons of flowers outside. The lobby has a two story opening with an actual sloping staircase if you'd rather walk up to the second floor. The service was very good, the room was clean and roomy. The Willowbrook Mall is only two miles away if you like to shop. Plenty of restaurants around the area. Hotel is directly next to the Steamboat steakhouse...if you want to pay $52 for filet mignon. Their is an outdoor pool and the fitness center was better than average for a smaller hotel. Free hot breakfast. No bar or restaurant on location, but they do have cold drinks and candy for sale at the desk. Enjoy the complimentary cookie and water bottle when you arrive.MoreShow less</t>
+  </si>
+  <si>
+    <t>I spent 4 days in Northwest Houston on business. The hotel is only 18 easy miles from GW Airport. The hotel is located directly off the highway. The entrance of the hotel is very nice. Tons of flowers outside. The lobby has a two story opening with an actual sloping staircase if you'd rather walk up to the second floor. The service was very good, the room was clean and roomy. The Willowbrook Mall is only two miles away if you like to shop. Plenty of restaurants around the area. Hotel is directly next to the Steamboat steakhouse...if you want to pay $52 for filet mignon. Their is an outdoor pool and the fitness center was better than average for a smaller hotel. Free hot breakfast. No bar or restaurant on location, but they do have cold drinks and candy for sale at the desk. Enjoy the complimentary cookie and water bottle when you arrive.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r261576790-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1074,6 +1710,51 @@
     <t>Puke in the elevator and no wake up call.  We told the staff about the puke but they never fully cleaned it up.  I asked for a 7am wake up call and never got it.  I asked them several times to clean it and they didn't.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r256977384-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256977384</t>
+  </si>
+  <si>
+    <t>02/28/2015</t>
+  </si>
+  <si>
+    <t>Best service Best Western</t>
+  </si>
+  <si>
+    <t>I was in town on Business and needed some documents scanned and the business center at the Best western didn't have one. I talked to Vik and he offered to scan them for me. Vik saved the day as my office needed them. i was ready to go to a FedX store to do it. Besides the rooms are very clean and conformable. Close to many restaurants. Vik also recommend good restraints. The pool area was nice but did't have time to use it maybe next time.With Service like this I will be back again and again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2015</t>
+  </si>
+  <si>
+    <t>I was in town on Business and needed some documents scanned and the business center at the Best western didn't have one. I talked to Vik and he offered to scan them for me. Vik saved the day as my office needed them. i was ready to go to a FedX store to do it. Besides the rooms are very clean and conformable. Close to many restaurants. Vik also recommend good restraints. The pool area was nice but did't have time to use it maybe next time.With Service like this I will be back again and again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r256860803-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256860803</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>BW Plus a pleasant surprise</t>
+  </si>
+  <si>
+    <t>I never stayed at a BW property before but after my experience here, I will consider BW when I travel for business. Clean, comfortable room, excellent staff and priced very competitively. I'd check out BW for my future trips. Conveniently located for restaurants &amp; stores &amp; to George Bush International Airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>I never stayed at a BW property before but after my experience here, I will consider BW when I travel for business. Clean, comfortable room, excellent staff and priced very competitively. I'd check out BW for my future trips. Conveniently located for restaurants &amp; stores &amp; to George Bush International Airport.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r256407205-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1089,15 +1770,6 @@
     <t>If you need a place close to Sam Houston Raceway, this is the one . . . well maintained, clean, nice hotel. You can access the raceway from a back road and avoid the Beltway and traffic. There are restaurants close by.MoreShow less</t>
   </si>
   <si>
-    <t>February 2015</t>
-  </si>
-  <si>
-    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded March 4, 2015</t>
-  </si>
-  <si>
-    <t>Responded March 4, 2015</t>
-  </si>
-  <si>
     <t>If you need a place close to Sam Houston Raceway, this is the one . . . well maintained, clean, nice hotel. You can access the raceway from a back road and avoid the Beltway and traffic. There are restaurants close by.More</t>
   </si>
   <si>
@@ -1137,6 +1809,54 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r249667214-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249667214</t>
+  </si>
+  <si>
+    <t>01/16/2015</t>
+  </si>
+  <si>
+    <t>Love this spot</t>
+  </si>
+  <si>
+    <t>I stay here a great deal during the year.  Very good for business activity with desk, tables, plugs.  Very convenient for Houston traffic.  Close access to the Beltway 8.  Staff is very courteous and eager to please.  Very pleasant every time.MoreShow less</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2015</t>
+  </si>
+  <si>
+    <t>I stay here a great deal during the year.  Very good for business activity with desk, tables, plugs.  Very convenient for Houston traffic.  Close access to the Beltway 8.  Staff is very courteous and eager to please.  Very pleasant every time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r243590069-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>243590069</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>Excellent!!! Very nice place. We enjoyed our stay and the staff attended to all of our needs.  Nothing bad to say about this location. Staff excellent, location excellent! Room Excellent!!! We will be back soon!!! Vik, Sam and George are great!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded December 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2014</t>
+  </si>
+  <si>
+    <t>Excellent!!! Very nice place. We enjoyed our stay and the staff attended to all of our needs.  Nothing bad to say about this location. Staff excellent, location excellent! Room Excellent!!! We will be back soon!!! Vik, Sam and George are great!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r241205010-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1206,6 +1926,42 @@
     <t>For me when searching for a hotel, I want affordable, CLEAN, NOT allow pets, and a free breakfast.  This place had all of those.  We were greeted by a friendly face on check in, and check in was quick which is nice when its late and you have small children.Breakfast was good.  Pastries, cereal, eggs, sausage, muffins, bagels, fresh (texas shaped) waffles.  We heard no noise from other rooms or patrons.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r233373607-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233373607</t>
+  </si>
+  <si>
+    <t>10/08/2014</t>
+  </si>
+  <si>
+    <t>Newly Rennovated. Clean. Great Service Plus Security for Parking Lot</t>
+  </si>
+  <si>
+    <t>I've been staying at this location at Gessner @ Beltway 8 for several years for business. About a year ago, they had a power/lightning surge. Guess what? All new AC units plus some new TVs, etc. Now, they have renovated the breakfast area, the hallways and the lobby. Really nice. They cater to the business traveler whether you be an accountant or oil field pro. If you can, request a room on the back for quieter and more peaceful view of the woods. Check out the banana tree in back. Also, about 9 p.m. there is a security "guard" that sits in a chair all night outside keeping a watchful eye on the rather quaint parking lot. Walking trail to a convenience store and Jack-in-the-Box for food and refreshments. WiFi works great.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've been staying at this location at Gessner @ Beltway 8 for several years for business. About a year ago, they had a power/lightning surge. Guess what? All new AC units plus some new TVs, etc. Now, they have renovated the breakfast area, the hallways and the lobby. Really nice. They cater to the business traveler whether you be an accountant or oil field pro. If you can, request a room on the back for quieter and more peaceful view of the woods. Check out the banana tree in back. Also, about 9 p.m. there is a security "guard" that sits in a chair all night outside keeping a watchful eye on the rather quaint parking lot. Walking trail to a convenience store and Jack-in-the-Box for food and refreshments. WiFi works great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r233220899-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233220899</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Place is very nice,clean and just newly renovated. Staff very friendly and helpful, will jump out of there way to make sure your stay was the most pleasant one. The breakfast items need to be fresh instead of pre frozen would highly recomendMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Place is very nice,clean and just newly renovated. Staff very friendly and helpful, will jump out of there way to make sure your stay was the most pleasant one. The breakfast items need to be fresh instead of pre frozen would highly recomendMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r228227174-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1221,9 +1977,6 @@
     <t>I stayed at this Best Western for 2 nights for business. After several screw ups on my employer's end, I ended up having to book the hotel on my own as I was leaving town for the trip.  Sunny at the front desk took my reservation and was very friendly and helpful. She also checked me in when I arrived later that night. The hotel was clean, bright, and inviting. The room was also very clean and the bed was super comfy.MoreShow less</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
     <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded September 11, 2014</t>
   </si>
   <si>
@@ -1278,6 +2031,45 @@
     <t>Overall experience was horrible from top to bottom, the police were at the establishment twice over a 24 hour period due to violence.  The security issues were scary and an extremely loud and outdated facility from top to bottom.  The ownership group was loud and berated several people in the front lobby.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r206277202-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206277202</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>clean &amp; safe</t>
+  </si>
+  <si>
+    <t>great place for an overnight business trip because of the location - near lots of great restaurants, shopping, and my office.  Always clean and has a really friendly and helpful  staff.  I always feel totally safe traveling alone and staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>great place for an overnight business trip because of the location - near lots of great restaurants, shopping, and my office.  Always clean and has a really friendly and helpful  staff.  I always feel totally safe traveling alone and staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r205753146-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205753146</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>Great Breakfast</t>
+  </si>
+  <si>
+    <t>First class hospitality Fabulous suite for the price of most rooms Even though we were there for business, felt like a lux vacation Upscale restaurant walking distance Just a lovely stay, I certainly hope I have business in the Houston area againMoreShow less</t>
+  </si>
+  <si>
+    <t>First class hospitality Fabulous suite for the price of most rooms Even though we were there for business, felt like a lux vacation Upscale restaurant walking distance Just a lovely stay, I certainly hope I have business in the Houston area againMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r203677936-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1329,6 +2121,39 @@
     <t>Extremely polite and friendly staff. Enjoyed the large room and easy access. I have had bad experiences in the past, but in the recent stays in Abilene and here in Houston, I have been  so pleasantly surprised with the rooms and the staff.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r196351418-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196351418</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
+    <t>Cheap place</t>
+  </si>
+  <si>
+    <t>I chose this place because company discount.  One of the worst hotel experience I ever had.  The sheets are dirty, elevator is slow.  I don't like their service either; I felt they don't really care about their customer.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r196081520-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196081520</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Not Sanitary</t>
+  </si>
+  <si>
+    <t>We recently stayed at the Sam Houston Best Western right outside of the race track.  The rooms were dirty, they smelled, the bath tub faucet was falling off the wall, the tub would not drain, and toild just barely flushed!  Absolutely the most discusting hotel I have ever stayed at!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r195742104-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1383,6 +2208,48 @@
     <t>We stayed here one night for our Valentine's day get-away. The room was nice and big, although I didn't like the side chair, which I thought it was a recliner, but it is just a simple chair with an ottoman underneath that gave me a hard time to pull it out from under and then , the cushion was hard and it hurt my behind. They should consider having nice comfortable recliners on all their rooms. Also their coffee maker is set-up in the bathroom, and I didn't like that either because there is bacteria in the bathrooms. Other than that, everything else was good. They have a nice breakfast area, ( my eggs were cold, though). There is a fine Chinese/Japanese Buffet by Willowbrook, called: E Star Restaurant.about, 3-4 miles from the hotel, the food is excellent. Everything else in the hotel's service is great.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r190675803-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190675803</t>
+  </si>
+  <si>
+    <t>01/12/2014</t>
+  </si>
+  <si>
+    <t>Should not have Plus rating</t>
+  </si>
+  <si>
+    <t>Rooms were spacious.  Carpet worn and the cleaning left something to be desired.  Slight odor in the rooms.   No roll in/walk in showers on property.   Pool looked pretty but too cold to use outside water items.  Breakfast was okay but don't go late; nothing left including no decaf.   No big chair to relax in or sofa.  Very low budget.  Bed no comfortable.   Cute place for a night; not a week's stay.   OK hotel but don't see how they were considered a Plus.  Workers were friendly and considerate.MoreShow less</t>
+  </si>
+  <si>
+    <t>SURINDERK8049, General Manager at Best Western Plus Sam Houston Inn &amp; Suites, responded to this reviewResponded January 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2014</t>
+  </si>
+  <si>
+    <t>Rooms were spacious.  Carpet worn and the cleaning left something to be desired.  Slight odor in the rooms.   No roll in/walk in showers on property.   Pool looked pretty but too cold to use outside water items.  Breakfast was okay but don't go late; nothing left including no decaf.   No big chair to relax in or sofa.  Very low budget.  Bed no comfortable.   Cute place for a night; not a week's stay.   OK hotel but don't see how they were considered a Plus.  Workers were friendly and considerate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r185464392-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185464392</t>
+  </si>
+  <si>
+    <t>11/21/2013</t>
+  </si>
+  <si>
+    <t>Smoking room not acceptable even for one night</t>
+  </si>
+  <si>
+    <t>The hotel exterior was typical of those being in an industrial/lower quality are of the city.  However the interior was excellent, the lobby was very nice and the room I stayed in for one night was comfortable and clean.  However their inability to get me a non-smoking room as was booked by another for me, was the reason I left.  My leaqving actually worked out for the best.   I was in a conference room at another Best Western and stayed at a hotel across from the conference hotel.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r178094259-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1431,6 +2298,45 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r161448840-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161448840</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>Perfect location for the concert at the Race Park</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 3 nights, but not consecutively, the room was clean and efficient.  It had a fridge and microwave.  I checked in at 5 am one morning and the front desk clerk was waiting for me.  That was excellent service.  We were tired and didn't have to go through a long check in process.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r147965487-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147965487</t>
+  </si>
+  <si>
+    <t>12/23/2012</t>
+  </si>
+  <si>
+    <t>Not bad, security is interesting</t>
+  </si>
+  <si>
+    <t>Stayed here when all other BW's were sold out.  Not a bad place to stay, here are my personal thoughts on this hotel.PROS: The staff is friendly, the hotel is very quiet. The bed seemed to be very comfortable, and over seemed to be a safe place to stay.CONS: Well, for starters, they had construction, so the recreation room was closed. For this 40+ year old having a place to workout is nice. I know, they are trying to improve things, but they should have mentioned this on their website.Breakfast, well, it is frozen food being reheated, it just didn't seem to be fresh. I suppose it was okay if you are hungry, but let's just say, I did not see very many people sticking around.Security, being in Houston can sometimes be a roll of the dice. I always feel a bit more comfortable knowing there is security, especially when I am getting in between 1:00-3:00am in the morning.  Please do not consider me to be judgmental or over-critical, but the hotel has an elderly family member sitting in a chair in the parking lot for security. I was a bit concerned, just for the gentleman's overall safety, besides my own. I know businesses are feeling the economical pinch, but I am not sure if this traveler can support this decision.OVERALL: It is a decent place to stay,right off the beltway.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Stayed here when all other BW's were sold out.  Not a bad place to stay, here are my personal thoughts on this hotel.PROS: The staff is friendly, the hotel is very quiet. The bed seemed to be very comfortable, and over seemed to be a safe place to stay.CONS: Well, for starters, they had construction, so the recreation room was closed. For this 40+ year old having a place to workout is nice. I know, they are trying to improve things, but they should have mentioned this on their website.Breakfast, well, it is frozen food being reheated, it just didn't seem to be fresh. I suppose it was okay if you are hungry, but let's just say, I did not see very many people sticking around.Security, being in Houston can sometimes be a roll of the dice. I always feel a bit more comfortable knowing there is security, especially when I am getting in between 1:00-3:00am in the morning.  Please do not consider me to be judgmental or over-critical, but the hotel has an elderly family member sitting in a chair in the parking lot for security. I was a bit concerned, just for the gentleman's overall safety, besides my own. I know businesses are feeling the economical pinch, but I am not sure if this traveler can support this decision.OVERALL: It is a decent place to stay,right off the beltway.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r147732904-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1488,6 +2394,42 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r125345971-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125345971</t>
+  </si>
+  <si>
+    <t>02/28/2012</t>
+  </si>
+  <si>
+    <t>We'll stay there again</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and helpful, and the facility was very clean.  We were very pleased with our room.  We plan to go back again soon.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r116262828-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116262828</t>
+  </si>
+  <si>
+    <t>08/04/2011</t>
+  </si>
+  <si>
+    <t>PEOPLE HAVE CHANGED</t>
+  </si>
+  <si>
+    <t>I usually always stay here not so much because of the hotel but because of their hospitality. Nelli was always very friendly and helpful. It was disappointing to find out she is no longer there. The hotel itself is okay. Their breakfast could be better.  Although, they are a very clean facility.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r97692582-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1540,6 +2482,39 @@
   </si>
   <si>
     <t>I just returned from my stay at Best Western Sam Houston Inn &amp; Suites.  I have to say from the beginning of my booking experience to check-out it has been extremely smooth.  I would like to thank Surrinder, Nelly, Dee, and their cleaning staff for excellent customer service.  I booked a block of rooms for my daughter's softball team and the experience has been terrific working with Surrinder, Hotel Manager, and Nelly.  The whole team was very impressed with the size of the rooms, softness of the beds, and especially how clean it was!  There are shops, malls, and restaurants right down the road, very convenient!  I think the location of the hotel is great!  My daughter left something rather expensive in the room and we just checked out, getting ready to get into our car, and one of the cleaning ladies waved at us from the room and showed us what she found.  I found that honorable and that is something you just don't find in this day and age.  For what I paid for my room and the quality of customer service I received, I will definitely return and continue to book my daughter's softball team through this hotel.  Thank you Best Western Sam Houston Inn &amp; Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r21957436-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>21957436</t>
+  </si>
+  <si>
+    <t>11/17/2008</t>
+  </si>
+  <si>
+    <t>Best NorthWest Highway</t>
+  </si>
+  <si>
+    <t>This is a 3+ star hotel. We booked a room after seeing the large chandelier in the lobby and were impressed with the tasteful decoration of the hotel - the bold and rich feel to the lobby which extended into the rooms. Everything was done without cutting corners - the showerheads gushed water like a Texas summer storm. The walls of the tub were marble. TV, double beds, desk etc. You can see the pictures for yourself. Everything was clean and classy and the price was moderate. The front desk staff were polite and friendly. We did not get up in time for breakfast so I cannot rate it, but it was offered. Several negatives: Wireless internet was too slow to be practical. The bathroom smelled faintly of PineSol cleaning product.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>This is a 3+ star hotel. We booked a room after seeing the large chandelier in the lobby and were impressed with the tasteful decoration of the hotel - the bold and rich feel to the lobby which extended into the rooms. Everything was done without cutting corners - the showerheads gushed water like a Texas summer storm. The walls of the tub were marble. TV, double beds, desk etc. You can see the pictures for yourself. Everything was clean and classy and the price was moderate. The front desk staff were polite and friendly. We did not get up in time for breakfast so I cannot rate it, but it was offered. Several negatives: Wireless internet was too slow to be practical. The bathroom smelled faintly of PineSol cleaning product.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d503400-r21506951-Best_Western_Plus_Sam_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>21506951</t>
+  </si>
+  <si>
+    <t>11/03/2008</t>
+  </si>
+  <si>
+    <t>IT is not the Ritz, but if you are looking for good quality and friendly people, this is it. Excellent location. Convienence store nearby as is a Jack in the Box.  Good value for the buck. Comfortable rooms. Great service. Would stay here again.</t>
   </si>
 </sst>
 </file>
@@ -2074,7 +3049,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2083,13 +3058,17 @@
         <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>5</v>
@@ -2132,29 +3111,39 @@
         <v>58</v>
       </c>
       <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -2165,7 +3154,7 @@
         <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -2181,62 +3170,48 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>68</v>
       </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
         <v>69</v>
-      </c>
-      <c r="O4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
-      <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -2252,31 +3227,31 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
-      </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
       </c>
       <c r="O5" t="s">
         <v>53</v>
@@ -2284,15 +3259,11 @@
       <c r="P5" t="n">
         <v>4</v>
       </c>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>5</v>
@@ -2301,13 +3272,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -2323,62 +3294,52 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
         <v>84</v>
       </c>
-      <c r="J6" t="s">
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" t="s">
         <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="s">
-        <v>80</v>
-      </c>
-      <c r="X6" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -2394,62 +3355,62 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
         <v>90</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>91</v>
       </c>
-      <c r="J7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
-      </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -2465,34 +3426,34 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
         <v>98</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>99</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>100</v>
       </c>
-      <c r="K8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>103</v>
-      </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2508,19 +3469,19 @@
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -2536,7 +3497,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2545,25 +3506,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2585,13 +3546,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -2607,34 +3568,34 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
         <v>113</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>114</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>115</v>
       </c>
-      <c r="K10" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" t="s">
-        <v>117</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>103</v>
-      </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2643,7 +3604,7 @@
         <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -2656,13 +3617,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
@@ -2678,34 +3639,34 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
         <v>119</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>120</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>121</v>
       </c>
-      <c r="K11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" t="s">
-        <v>123</v>
-      </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2717,23 +3678,23 @@
         <v>5</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -2749,62 +3710,62 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
         <v>128</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>129</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>130</v>
       </c>
-      <c r="K12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L12" t="s">
-        <v>132</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>124</v>
-      </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="X12" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -2820,62 +3781,62 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
         <v>136</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>137</v>
-      </c>
-      <c r="J13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" t="s">
-        <v>139</v>
-      </c>
-      <c r="L13" t="s">
-        <v>140</v>
-      </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
@@ -2891,58 +3852,52 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s">
         <v>143</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>144</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>137</v>
+      </c>
+      <c r="X14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y14" t="s">
         <v>145</v>
-      </c>
-      <c r="K14" t="s">
-        <v>146</v>
-      </c>
-      <c r="L14" t="s">
-        <v>147</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>148</v>
-      </c>
-      <c r="O14" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
-      <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
-        <v>149</v>
-      </c>
-      <c r="X14" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="15">
@@ -2958,7 +3913,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2967,53 +3922,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="X15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
@@ -3029,52 +3980,62 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
         <v>158</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>159</v>
       </c>
-      <c r="J16" t="s">
-        <v>154</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>160</v>
       </c>
-      <c r="L16" t="s">
+      <c r="O16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
         <v>161</v>
       </c>
-      <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>148</v>
-      </c>
-      <c r="O16" t="s">
-        <v>62</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
-      <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="s">
-        <v>149</v>
-      </c>
       <c r="X16" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Y16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
@@ -3090,7 +4051,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3099,25 +4060,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3139,13 +4100,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
+        <v>161</v>
+      </c>
+      <c r="X17" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y17" t="s">
         <v>169</v>
-      </c>
-      <c r="X17" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -3161,38 +4122,44 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
         <v>172</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>173</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>174</v>
       </c>
-      <c r="K18" t="s">
-        <v>175</v>
-      </c>
-      <c r="L18" t="s">
-        <v>176</v>
-      </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="n">
         <v>5</v>
       </c>
@@ -3204,13 +4171,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="X18" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
@@ -3226,34 +4193,34 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" t="s">
         <v>178</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>179</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>180</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>181</v>
       </c>
-      <c r="L19" t="s">
-        <v>182</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>168</v>
-      </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3262,7 +4229,7 @@
         <v>5</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3275,13 +4242,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="X19" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
@@ -3297,7 +4264,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3306,32 +4273,38 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
       <c r="R20" t="n">
         <v>5</v>
       </c>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -3340,13 +4313,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
+        <v>182</v>
+      </c>
+      <c r="X20" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y20" t="s">
         <v>190</v>
-      </c>
-      <c r="X20" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="21">
@@ -3362,37 +4335,37 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
         <v>193</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>194</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>195</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>196</v>
       </c>
-      <c r="L21" t="s">
-        <v>197</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s">
-        <v>189</v>
-      </c>
       <c r="O21" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
         <v>4</v>
@@ -3401,7 +4374,7 @@
         <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -3411,13 +4384,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="X21" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Y21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
@@ -3433,7 +4406,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3442,53 +4415,53 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="X22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
@@ -3504,7 +4477,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3513,43 +4486,53 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="O23" t="s">
-        <v>70</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="X23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
@@ -3565,7 +4548,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3574,34 +4557,34 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="O24" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
       <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -3656,22 +4639,22 @@
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="O25" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
@@ -3681,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="X25" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="Y25" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
@@ -3703,7 +4686,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3712,53 +4695,49 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J26" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K26" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="X26" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="Y26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27">
@@ -3774,7 +4753,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3783,28 +4762,28 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
         <v>5</v>
@@ -3813,7 +4792,7 @@
         <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3823,13 +4802,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="X27" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y27" t="s">
         <v>244</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="28">
@@ -3845,58 +4824,52 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
         <v>246</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
+        <v>241</v>
+      </c>
+      <c r="K28" t="s">
         <v>247</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
         <v>248</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>237</v>
+      </c>
+      <c r="O28" t="s">
+        <v>84</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>220</v>
+      </c>
+      <c r="X28" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y28" t="s">
         <v>249</v>
-      </c>
-      <c r="L28" t="s">
-        <v>250</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>234</v>
-      </c>
-      <c r="O28" t="s">
-        <v>62</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
-      <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="s">
-        <v>243</v>
-      </c>
-      <c r="X28" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="29">
@@ -3912,62 +4885,62 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>251</v>
+      </c>
+      <c r="J29" t="s">
         <v>252</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
         <v>253</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>254</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
         <v>255</v>
       </c>
-      <c r="L29" t="s">
-        <v>256</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s">
-        <v>257</v>
-      </c>
       <c r="O29" t="s">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="X29" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Y29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30">
@@ -3983,58 +4956,52 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>260</v>
+      </c>
+      <c r="J30" t="s">
+        <v>261</v>
+      </c>
+      <c r="K30" t="s">
         <v>262</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>263</v>
       </c>
-      <c r="J30" t="s">
-        <v>264</v>
-      </c>
-      <c r="K30" t="s">
-        <v>265</v>
-      </c>
-      <c r="L30" t="s">
-        <v>266</v>
-      </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="X30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Y30" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31">
@@ -4050,43 +5017,43 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>268</v>
+      </c>
+      <c r="J31" t="s">
+        <v>269</v>
+      </c>
+      <c r="K31" t="s">
         <v>270</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>271</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
         <v>272</v>
       </c>
-      <c r="K31" t="s">
-        <v>273</v>
-      </c>
-      <c r="L31" t="s">
-        <v>274</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>275</v>
-      </c>
       <c r="O31" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
         <v>5</v>
       </c>
       <c r="R31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4099,13 +5066,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="X31" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Y31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32">
@@ -4121,58 +5088,56 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
         <v>277</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>278</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>279</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>280</v>
       </c>
-      <c r="L32" t="s">
-        <v>281</v>
-      </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="X32" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="Y32" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33">
@@ -4188,52 +5153,62 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>283</v>
+      </c>
+      <c r="J33" t="s">
+        <v>284</v>
+      </c>
+      <c r="K33" t="s">
+        <v>285</v>
+      </c>
+      <c r="L33" t="s">
         <v>286</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>272</v>
+      </c>
+      <c r="O33" t="s">
+        <v>84</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>273</v>
+      </c>
+      <c r="X33" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y33" t="s">
         <v>287</v>
-      </c>
-      <c r="J33" t="s">
-        <v>288</v>
-      </c>
-      <c r="K33" t="s">
-        <v>289</v>
-      </c>
-      <c r="L33" t="s">
-        <v>290</v>
-      </c>
-      <c r="M33" t="n">
-        <v>4</v>
-      </c>
-      <c r="N33" t="s">
-        <v>282</v>
-      </c>
-      <c r="O33" t="s">
-        <v>62</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
-      <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s">
-        <v>291</v>
-      </c>
-      <c r="X33" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -4249,7 +5224,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4258,25 +5233,25 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="J34" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K34" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4288,13 +5263,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="X34" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Y34" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
@@ -4310,7 +5285,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4319,37 +5294,37 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="J35" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="O35" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R35" t="n">
         <v>5</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
@@ -4359,13 +5334,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="X35" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Y35" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36">
@@ -4381,7 +5356,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4390,49 +5365,47 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="J36" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K36" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O36" t="s">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="X36" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Y36" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37">
@@ -4448,43 +5421,47 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>315</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>316</v>
+      </c>
+      <c r="J37" t="s">
+        <v>317</v>
+      </c>
+      <c r="K37" t="s">
         <v>318</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="L37" t="s">
         <v>319</v>
       </c>
-      <c r="J37" t="s">
-        <v>320</v>
-      </c>
-      <c r="K37" t="s">
-        <v>321</v>
-      </c>
-      <c r="L37" t="s">
-        <v>322</v>
-      </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
-      </c>
-      <c r="P37" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
       <c r="Q37" t="n">
         <v>4</v>
       </c>
       <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>4</v>
@@ -4493,13 +5470,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="X37" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="Y37" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38">
@@ -4515,7 +5492,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4524,53 +5501,53 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J38" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K38" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L38" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="O38" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="X38" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="Y38" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39">
@@ -4586,7 +5563,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4595,49 +5572,43 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="J39" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K39" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L39" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="O39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="X39" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="Y39" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40">
@@ -4653,7 +5624,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4662,53 +5633,53 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="J40" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K40" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="L40" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R40" t="n">
         <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="X40" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="Y40" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41">
@@ -4724,7 +5695,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4733,47 +5704,43 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="J41" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K41" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="L41" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="O41" t="s">
-        <v>70</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>4</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="X41" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="Y41" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42">
@@ -4789,7 +5756,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4798,37 +5765,33 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="J42" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="K42" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L42" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="O42" t="s">
-        <v>141</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
         <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
@@ -4838,13 +5801,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="X42" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Y42" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43">
@@ -4860,7 +5823,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4869,28 +5832,28 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="J43" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="K43" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="L43" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
         <v>4</v>
@@ -4903,15 +5866,19 @@
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>326</v>
+      </c>
+      <c r="X43" t="s">
+        <v>327</v>
+      </c>
       <c r="Y43" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44">
@@ -4927,7 +5894,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4936,53 +5903,43 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="J44" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K44" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="L44" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>4</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="X44" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="Y44" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45">
@@ -4998,7 +5955,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -5007,31 +5964,35 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="J45" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="K45" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="L45" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O45" t="s">
-        <v>258</v>
-      </c>
-      <c r="P45" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
       <c r="Q45" t="n">
         <v>5</v>
       </c>
-      <c r="R45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
       <c r="S45" t="n">
         <v>5</v>
       </c>
@@ -5043,13 +6004,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
+        <v>378</v>
+      </c>
+      <c r="X45" t="s">
         <v>379</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>380</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="46">
@@ -5065,7 +6026,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5074,31 +6035,35 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="J46" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="K46" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="L46" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
       </c>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
       <c r="S46" t="n">
         <v>5</v>
       </c>
@@ -5110,13 +6075,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="X46" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="Y46" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47">
@@ -5132,7 +6097,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5141,25 +6106,25 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="J47" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="K47" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L47" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="O47" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5168,7 +6133,7 @@
         <v>5</v>
       </c>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5181,13 +6146,13 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="X47" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="Y47" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48">
@@ -5203,7 +6168,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5212,43 +6177,49 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="J48" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="K48" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="L48" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="O48" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="P48" t="s"/>
-      <c r="Q48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
       <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
       <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="X48" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="Y48" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49">
@@ -5264,7 +6235,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5273,53 +6244,53 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="J49" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="K49" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
+        <v>410</v>
+      </c>
+      <c r="X49" t="s">
         <v>411</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>412</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="50">
@@ -5335,7 +6306,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5344,53 +6315,43 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="J50" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K50" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="L50" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="O50" t="s">
-        <v>258</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>5</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
+        <v>410</v>
+      </c>
+      <c r="X50" t="s">
         <v>411</v>
       </c>
-      <c r="X50" t="s">
-        <v>412</v>
-      </c>
       <c r="Y50" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51">
@@ -5406,7 +6367,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5415,49 +6376,53 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="J51" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="K51" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="L51" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>424</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="n">
         <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>425</v>
+      </c>
+      <c r="X51" t="s">
+        <v>426</v>
+      </c>
       <c r="Y51" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52">
@@ -5473,58 +6438,58 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
+        <v>428</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>429</v>
+      </c>
+      <c r="J52" t="s">
+        <v>430</v>
+      </c>
+      <c r="K52" t="s">
+        <v>431</v>
+      </c>
+      <c r="L52" t="s">
         <v>432</v>
       </c>
-      <c r="G52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" t="s">
-        <v>47</v>
-      </c>
-      <c r="I52" t="s">
-        <v>433</v>
-      </c>
-      <c r="J52" t="s">
-        <v>434</v>
-      </c>
-      <c r="K52" t="s">
-        <v>435</v>
-      </c>
-      <c r="L52" t="s">
-        <v>436</v>
-      </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="O52" t="s">
-        <v>258</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>433</v>
+      </c>
+      <c r="X52" t="s">
+        <v>434</v>
+      </c>
       <c r="Y52" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53">
@@ -5540,58 +6505,62 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
+        <v>436</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
         <v>437</v>
       </c>
-      <c r="G53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H53" t="s">
-        <v>47</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>438</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>439</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>440</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
         <v>441</v>
       </c>
-      <c r="M53" t="n">
-        <v>2</v>
-      </c>
-      <c r="N53" t="s">
-        <v>442</v>
-      </c>
       <c r="O53" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>433</v>
+      </c>
+      <c r="X53" t="s">
+        <v>434</v>
+      </c>
       <c r="Y53" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54">
@@ -5628,13 +6597,13 @@
         <v>447</v>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="O54" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5645,10 +6614,14 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>448</v>
+      </c>
+      <c r="X54" t="s">
+        <v>449</v>
+      </c>
       <c r="Y54" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55">
@@ -5664,7 +6637,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5673,31 +6646,31 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J55" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K55" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L55" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="O55" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R55" t="n">
         <v>4</v>
@@ -5712,10 +6685,14 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>457</v>
+      </c>
+      <c r="X55" t="s">
+        <v>458</v>
+      </c>
       <c r="Y55" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="56">
@@ -5731,7 +6708,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5740,49 +6717,49 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="J56" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K56" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L56" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="O56" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>5</v>
-      </c>
-      <c r="R56" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>466</v>
+      </c>
+      <c r="X56" t="s">
+        <v>467</v>
+      </c>
       <c r="Y56" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57">
@@ -5798,7 +6775,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5807,49 +6784,43 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="J57" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="K57" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="L57" t="s">
+        <v>473</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
         <v>465</v>
       </c>
-      <c r="M57" t="n">
-        <v>5</v>
-      </c>
-      <c r="N57" t="s">
-        <v>466</v>
-      </c>
       <c r="O57" t="s">
-        <v>53</v>
-      </c>
-      <c r="P57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
-      <c r="R57" t="n">
-        <v>5</v>
-      </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>5</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>474</v>
+      </c>
+      <c r="X57" t="s">
+        <v>475</v>
+      </c>
       <c r="Y57" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58">
@@ -5865,7 +6836,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5874,44 +6845,44 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="J58" t="s">
-        <v>469</v>
-      </c>
-      <c r="K58" t="s"/>
-      <c r="L58" t="s"/>
+        <v>479</v>
+      </c>
+      <c r="K58" t="s">
+        <v>480</v>
+      </c>
+      <c r="L58" t="s">
+        <v>481</v>
+      </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>4</v>
-      </c>
-      <c r="R58" t="n">
-        <v>4</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>4</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
+      <c r="W58" t="s">
+        <v>483</v>
+      </c>
+      <c r="X58" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5926,7 +6897,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5935,38 +6906,32 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="J59" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="K59" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="L59" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="O59" t="s">
-        <v>62</v>
-      </c>
-      <c r="P59" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
       <c r="Q59" t="n">
-        <v>4</v>
-      </c>
-      <c r="R59" t="n">
-        <v>3</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
         <v>5</v>
@@ -5974,10 +6939,14 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>483</v>
+      </c>
+      <c r="X59" t="s">
+        <v>484</v>
+      </c>
       <c r="Y59" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60">
@@ -5993,7 +6962,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -6002,49 +6971,53 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="J60" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="K60" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="L60" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="O60" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="P60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>499</v>
+      </c>
+      <c r="X60" t="s">
+        <v>500</v>
+      </c>
       <c r="Y60" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
     </row>
     <row r="61">
@@ -6060,7 +7033,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6069,37 +7042,37 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="J61" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="K61" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="L61" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="O61" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="P61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R61" t="n">
         <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
@@ -6108,10 +7081,14 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>499</v>
+      </c>
+      <c r="X61" t="s">
+        <v>500</v>
+      </c>
       <c r="Y61" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
     </row>
     <row r="62">
@@ -6127,7 +7104,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6136,49 +7113,49 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="J62" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="K62" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="L62" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O62" t="s">
-        <v>70</v>
-      </c>
-      <c r="P62" t="n">
-        <v>3</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="P62" t="s"/>
       <c r="Q62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R62" t="n">
-        <v>3</v>
-      </c>
-      <c r="S62" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>499</v>
+      </c>
+      <c r="X62" t="s">
+        <v>500</v>
+      </c>
       <c r="Y62" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
     </row>
     <row r="63">
@@ -6194,7 +7171,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6203,49 +7180,49 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="J63" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="K63" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="L63" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="O63" t="s">
-        <v>62</v>
-      </c>
-      <c r="P63" t="n">
-        <v>1</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P63" t="s"/>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R63" t="n">
-        <v>1</v>
-      </c>
-      <c r="S63" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>520</v>
+      </c>
+      <c r="X63" t="s">
+        <v>521</v>
+      </c>
       <c r="Y63" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
     </row>
     <row r="64">
@@ -6261,7 +7238,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6270,45 +7247,3155 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="J64" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="K64" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="L64" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
-      </c>
-      <c r="N64" t="s"/>
-      <c r="O64" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>519</v>
+      </c>
+      <c r="O64" t="s">
+        <v>84</v>
+      </c>
       <c r="P64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q64" t="n">
         <v>5</v>
       </c>
       <c r="R64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S64" t="n">
         <v>5</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>528</v>
+      </c>
+      <c r="X64" t="s">
+        <v>529</v>
+      </c>
       <c r="Y64" t="s">
-        <v>507</v>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>531</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>532</v>
+      </c>
+      <c r="J65" t="s">
+        <v>533</v>
+      </c>
+      <c r="K65" t="s">
+        <v>534</v>
+      </c>
+      <c r="L65" t="s">
+        <v>535</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>519</v>
+      </c>
+      <c r="O65" t="s">
+        <v>84</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>528</v>
+      </c>
+      <c r="X65" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>537</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>538</v>
+      </c>
+      <c r="J66" t="s">
+        <v>539</v>
+      </c>
+      <c r="K66" t="s">
+        <v>540</v>
+      </c>
+      <c r="L66" t="s">
+        <v>541</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>542</v>
+      </c>
+      <c r="O66" t="s">
+        <v>213</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>543</v>
+      </c>
+      <c r="X66" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>546</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>547</v>
+      </c>
+      <c r="J67" t="s">
+        <v>548</v>
+      </c>
+      <c r="K67" t="s">
+        <v>549</v>
+      </c>
+      <c r="L67" t="s">
+        <v>550</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>542</v>
+      </c>
+      <c r="O67" t="s">
+        <v>84</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>551</v>
+      </c>
+      <c r="X67" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>554</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>555</v>
+      </c>
+      <c r="J68" t="s">
+        <v>556</v>
+      </c>
+      <c r="K68" t="s">
+        <v>557</v>
+      </c>
+      <c r="L68" t="s">
+        <v>558</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>542</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>559</v>
+      </c>
+      <c r="X68" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>562</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>563</v>
+      </c>
+      <c r="J69" t="s">
+        <v>564</v>
+      </c>
+      <c r="K69" t="s">
+        <v>565</v>
+      </c>
+      <c r="L69" t="s">
+        <v>566</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>567</v>
+      </c>
+      <c r="O69" t="s">
+        <v>84</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>568</v>
+      </c>
+      <c r="X69" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>571</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>572</v>
+      </c>
+      <c r="J70" t="s">
+        <v>573</v>
+      </c>
+      <c r="K70" t="s">
+        <v>574</v>
+      </c>
+      <c r="L70" t="s">
+        <v>575</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>567</v>
+      </c>
+      <c r="O70" t="s">
+        <v>84</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>568</v>
+      </c>
+      <c r="X70" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>577</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>578</v>
+      </c>
+      <c r="J71" t="s">
+        <v>579</v>
+      </c>
+      <c r="K71" t="s">
+        <v>580</v>
+      </c>
+      <c r="L71" t="s">
+        <v>581</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>567</v>
+      </c>
+      <c r="O71" t="s">
+        <v>61</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>568</v>
+      </c>
+      <c r="X71" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>583</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>584</v>
+      </c>
+      <c r="J72" t="s">
+        <v>585</v>
+      </c>
+      <c r="K72" t="s">
+        <v>586</v>
+      </c>
+      <c r="L72" t="s">
+        <v>587</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>567</v>
+      </c>
+      <c r="O72" t="s">
+        <v>213</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>568</v>
+      </c>
+      <c r="X72" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>589</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>590</v>
+      </c>
+      <c r="J73" t="s">
+        <v>591</v>
+      </c>
+      <c r="K73" t="s">
+        <v>592</v>
+      </c>
+      <c r="L73" t="s">
+        <v>593</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>594</v>
+      </c>
+      <c r="O73" t="s">
+        <v>84</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>595</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>596</v>
+      </c>
+      <c r="J74" t="s">
+        <v>597</v>
+      </c>
+      <c r="K74" t="s">
+        <v>598</v>
+      </c>
+      <c r="L74" t="s">
+        <v>599</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>594</v>
+      </c>
+      <c r="O74" t="s">
+        <v>84</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>600</v>
+      </c>
+      <c r="X74" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>603</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>604</v>
+      </c>
+      <c r="J75" t="s">
+        <v>605</v>
+      </c>
+      <c r="K75" t="s">
+        <v>606</v>
+      </c>
+      <c r="L75" t="s">
+        <v>607</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>482</v>
+      </c>
+      <c r="O75" t="s">
+        <v>424</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>608</v>
+      </c>
+      <c r="X75" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>611</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>612</v>
+      </c>
+      <c r="J76" t="s">
+        <v>613</v>
+      </c>
+      <c r="K76" t="s">
+        <v>614</v>
+      </c>
+      <c r="L76" t="s">
+        <v>615</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>616</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>617</v>
+      </c>
+      <c r="X76" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>620</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>621</v>
+      </c>
+      <c r="J77" t="s">
+        <v>622</v>
+      </c>
+      <c r="K77" t="s">
+        <v>623</v>
+      </c>
+      <c r="L77" t="s">
+        <v>624</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>616</v>
+      </c>
+      <c r="O77" t="s">
+        <v>424</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>617</v>
+      </c>
+      <c r="X77" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>626</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>627</v>
+      </c>
+      <c r="J78" t="s">
+        <v>628</v>
+      </c>
+      <c r="K78" t="s">
+        <v>629</v>
+      </c>
+      <c r="L78" t="s">
+        <v>630</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>616</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>631</v>
+      </c>
+      <c r="X78" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>634</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>635</v>
+      </c>
+      <c r="J79" t="s">
+        <v>636</v>
+      </c>
+      <c r="K79" t="s">
+        <v>637</v>
+      </c>
+      <c r="L79" t="s">
+        <v>638</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>616</v>
+      </c>
+      <c r="O79" t="s">
+        <v>84</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>631</v>
+      </c>
+      <c r="X79" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>640</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>641</v>
+      </c>
+      <c r="J80" t="s">
+        <v>642</v>
+      </c>
+      <c r="K80" t="s">
+        <v>384</v>
+      </c>
+      <c r="L80" t="s">
+        <v>643</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>644</v>
+      </c>
+      <c r="O80" t="s">
+        <v>84</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>631</v>
+      </c>
+      <c r="X80" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>646</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>647</v>
+      </c>
+      <c r="J81" t="s">
+        <v>648</v>
+      </c>
+      <c r="K81" t="s">
+        <v>649</v>
+      </c>
+      <c r="L81" t="s">
+        <v>650</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>644</v>
+      </c>
+      <c r="O81" t="s">
+        <v>84</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>651</v>
+      </c>
+      <c r="X81" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>654</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>655</v>
+      </c>
+      <c r="J82" t="s">
+        <v>656</v>
+      </c>
+      <c r="K82" t="s">
+        <v>657</v>
+      </c>
+      <c r="L82" t="s">
+        <v>658</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>659</v>
+      </c>
+      <c r="O82" t="s">
+        <v>84</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>660</v>
+      </c>
+      <c r="X82" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>663</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>664</v>
+      </c>
+      <c r="J83" t="s">
+        <v>665</v>
+      </c>
+      <c r="K83" t="s">
+        <v>666</v>
+      </c>
+      <c r="L83" t="s">
+        <v>667</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>659</v>
+      </c>
+      <c r="O83" t="s">
+        <v>84</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>660</v>
+      </c>
+      <c r="X83" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>669</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>670</v>
+      </c>
+      <c r="J84" t="s">
+        <v>671</v>
+      </c>
+      <c r="K84" t="s">
+        <v>672</v>
+      </c>
+      <c r="L84" t="s">
+        <v>673</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>674</v>
+      </c>
+      <c r="O84" t="s">
+        <v>84</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>660</v>
+      </c>
+      <c r="X84" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>676</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>677</v>
+      </c>
+      <c r="J85" t="s">
+        <v>678</v>
+      </c>
+      <c r="K85" t="s">
+        <v>679</v>
+      </c>
+      <c r="L85" t="s">
+        <v>680</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>674</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>660</v>
+      </c>
+      <c r="X85" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>682</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>683</v>
+      </c>
+      <c r="J86" t="s">
+        <v>684</v>
+      </c>
+      <c r="K86" t="s">
+        <v>685</v>
+      </c>
+      <c r="L86" t="s">
+        <v>686</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>687</v>
+      </c>
+      <c r="O86" t="s">
+        <v>424</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>660</v>
+      </c>
+      <c r="X86" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>689</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>690</v>
+      </c>
+      <c r="J87" t="s">
+        <v>691</v>
+      </c>
+      <c r="K87" t="s">
+        <v>692</v>
+      </c>
+      <c r="L87" t="s">
+        <v>693</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>687</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>694</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>695</v>
+      </c>
+      <c r="J88" t="s">
+        <v>696</v>
+      </c>
+      <c r="K88" t="s">
+        <v>697</v>
+      </c>
+      <c r="L88" t="s">
+        <v>698</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>687</v>
+      </c>
+      <c r="O88" t="s">
+        <v>424</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>699</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>700</v>
+      </c>
+      <c r="J89" t="s">
+        <v>701</v>
+      </c>
+      <c r="K89" t="s">
+        <v>702</v>
+      </c>
+      <c r="L89" t="s">
+        <v>703</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>704</v>
+      </c>
+      <c r="O89" t="s">
+        <v>84</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>2</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>705</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>706</v>
+      </c>
+      <c r="J90" t="s">
+        <v>707</v>
+      </c>
+      <c r="K90" t="s">
+        <v>708</v>
+      </c>
+      <c r="L90" t="s">
+        <v>709</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>704</v>
+      </c>
+      <c r="O90" t="s">
+        <v>424</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>710</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>711</v>
+      </c>
+      <c r="J91" t="s">
+        <v>712</v>
+      </c>
+      <c r="K91" t="s">
+        <v>713</v>
+      </c>
+      <c r="L91" t="s">
+        <v>714</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s">
+        <v>715</v>
+      </c>
+      <c r="O91" t="s">
+        <v>84</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>716</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>717</v>
+      </c>
+      <c r="J92" t="s">
+        <v>718</v>
+      </c>
+      <c r="K92" t="s">
+        <v>719</v>
+      </c>
+      <c r="L92" t="s">
+        <v>720</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>721</v>
+      </c>
+      <c r="O92" t="s">
+        <v>61</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>722</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>723</v>
+      </c>
+      <c r="J93" t="s">
+        <v>724</v>
+      </c>
+      <c r="K93" t="s">
+        <v>725</v>
+      </c>
+      <c r="L93" t="s">
+        <v>726</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>715</v>
+      </c>
+      <c r="O93" t="s">
+        <v>61</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>728</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>729</v>
+      </c>
+      <c r="J94" t="s">
+        <v>730</v>
+      </c>
+      <c r="K94" t="s">
+        <v>731</v>
+      </c>
+      <c r="L94" t="s">
+        <v>732</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>721</v>
+      </c>
+      <c r="O94" t="s">
+        <v>84</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>733</v>
+      </c>
+      <c r="X94" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>736</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>737</v>
+      </c>
+      <c r="J95" t="s">
+        <v>738</v>
+      </c>
+      <c r="K95" t="s">
+        <v>739</v>
+      </c>
+      <c r="L95" t="s">
+        <v>740</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>741</v>
+      </c>
+      <c r="O95" t="s">
+        <v>84</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>742</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>743</v>
+      </c>
+      <c r="J96" t="s">
+        <v>744</v>
+      </c>
+      <c r="K96" t="s">
+        <v>745</v>
+      </c>
+      <c r="L96" t="s">
+        <v>746</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>747</v>
+      </c>
+      <c r="O96" t="s">
+        <v>84</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>748</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>749</v>
+      </c>
+      <c r="J97" t="s">
+        <v>750</v>
+      </c>
+      <c r="K97" t="s">
+        <v>751</v>
+      </c>
+      <c r="L97" t="s">
+        <v>752</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>753</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>754</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>755</v>
+      </c>
+      <c r="J98" t="s">
+        <v>756</v>
+      </c>
+      <c r="K98" t="s"/>
+      <c r="L98" t="s"/>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>757</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>758</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>759</v>
+      </c>
+      <c r="J99" t="s">
+        <v>760</v>
+      </c>
+      <c r="K99" t="s">
+        <v>761</v>
+      </c>
+      <c r="L99" t="s">
+        <v>762</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>763</v>
+      </c>
+      <c r="O99" t="s">
+        <v>61</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>764</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>765</v>
+      </c>
+      <c r="J100" t="s">
+        <v>766</v>
+      </c>
+      <c r="K100" t="s">
+        <v>767</v>
+      </c>
+      <c r="L100" t="s">
+        <v>768</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>769</v>
+      </c>
+      <c r="O100" t="s">
+        <v>84</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>771</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>772</v>
+      </c>
+      <c r="J101" t="s">
+        <v>773</v>
+      </c>
+      <c r="K101" t="s">
+        <v>774</v>
+      </c>
+      <c r="L101" t="s">
+        <v>775</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>776</v>
+      </c>
+      <c r="O101" t="s">
+        <v>84</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>778</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>779</v>
+      </c>
+      <c r="J102" t="s">
+        <v>780</v>
+      </c>
+      <c r="K102" t="s">
+        <v>781</v>
+      </c>
+      <c r="L102" t="s">
+        <v>782</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>783</v>
+      </c>
+      <c r="O102" t="s">
+        <v>84</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>784</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>785</v>
+      </c>
+      <c r="J103" t="s">
+        <v>786</v>
+      </c>
+      <c r="K103" t="s">
+        <v>787</v>
+      </c>
+      <c r="L103" t="s">
+        <v>788</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>789</v>
+      </c>
+      <c r="O103" t="s">
+        <v>84</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>790</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>791</v>
+      </c>
+      <c r="J104" t="s">
+        <v>792</v>
+      </c>
+      <c r="K104" t="s">
+        <v>793</v>
+      </c>
+      <c r="L104" t="s">
+        <v>794</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>795</v>
+      </c>
+      <c r="O104" t="s">
+        <v>61</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>796</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>797</v>
+      </c>
+      <c r="J105" t="s">
+        <v>798</v>
+      </c>
+      <c r="K105" t="s">
+        <v>799</v>
+      </c>
+      <c r="L105" t="s">
+        <v>800</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s">
+        <v>801</v>
+      </c>
+      <c r="O105" t="s">
+        <v>84</v>
+      </c>
+      <c r="P105" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>802</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>803</v>
+      </c>
+      <c r="J106" t="s">
+        <v>804</v>
+      </c>
+      <c r="K106" t="s">
+        <v>805</v>
+      </c>
+      <c r="L106" t="s">
+        <v>806</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="s">
+        <v>807</v>
+      </c>
+      <c r="O106" t="s">
+        <v>61</v>
+      </c>
+      <c r="P106" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>2</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>808</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>809</v>
+      </c>
+      <c r="J107" t="s">
+        <v>810</v>
+      </c>
+      <c r="K107" t="s">
+        <v>811</v>
+      </c>
+      <c r="L107" t="s">
+        <v>812</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>807</v>
+      </c>
+      <c r="O107" t="s">
+        <v>84</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>1</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1</v>
+      </c>
+      <c r="S107" t="n">
+        <v>1</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>1</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>814</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>815</v>
+      </c>
+      <c r="J108" t="s">
+        <v>816</v>
+      </c>
+      <c r="K108" t="s">
+        <v>817</v>
+      </c>
+      <c r="L108" t="s">
+        <v>818</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s"/>
+      <c r="O108" t="s"/>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>820</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>821</v>
+      </c>
+      <c r="J109" t="s">
+        <v>822</v>
+      </c>
+      <c r="K109" t="s">
+        <v>823</v>
+      </c>
+      <c r="L109" t="s">
+        <v>824</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>825</v>
+      </c>
+      <c r="O109" t="s">
+        <v>53</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>52928</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>827</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>828</v>
+      </c>
+      <c r="J110" t="s">
+        <v>829</v>
+      </c>
+      <c r="K110" t="s">
+        <v>247</v>
+      </c>
+      <c r="L110" t="s">
+        <v>830</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>825</v>
+      </c>
+      <c r="O110" t="s">
+        <v>84</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>830</v>
       </c>
     </row>
   </sheetData>
